--- a/data/gendergap2.xlsx
+++ b/data/gendergap2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedau\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedau\Desktop\20080404\Term-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5CA816-2CD6-45F6-AD60-FE4F4FA18DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA786D-8069-4810-8BC9-8AAC8BF953FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1044" yWindow="360" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1354,9 +1354,6 @@
     <t>Employment Rate</t>
   </si>
   <si>
-    <t>Reference Area</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -1367,6 +1364,9 @@
   </si>
   <si>
     <t>Unemployment by age</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
 </sst>
 </file>
@@ -2235,9 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2250,7 +2248,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B1" t="s">
         <v>356</v>
@@ -2268,13 +2266,13 @@
         <v>361</v>
       </c>
       <c r="G1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>370</v>
       </c>
       <c r="I1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J1" t="s">
         <v>443</v>
@@ -2503,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" t="s">
         <v>362</v>
@@ -2535,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>437</v>
@@ -2567,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C11" t="s">
         <v>438</v>
@@ -2599,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C12" t="s">
         <v>439</v>
@@ -2631,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C13" t="s">
         <v>440</v>
@@ -2657,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" t="s">
         <v>441</v>
@@ -2689,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" t="s">
         <v>442</v>
@@ -2721,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" t="s">
         <v>362</v>
@@ -2753,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C17" t="s">
         <v>437</v>
@@ -2785,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C18" t="s">
         <v>438</v>
@@ -2817,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C19" t="s">
         <v>439</v>
@@ -2849,7 +2847,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C20" t="s">
         <v>440</v>
@@ -2875,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
         <v>441</v>
@@ -2907,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
         <v>442</v>
@@ -3157,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C30" t="s">
         <v>362</v>
@@ -3189,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C31" t="s">
         <v>437</v>
@@ -3221,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C32" t="s">
         <v>438</v>
@@ -3253,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C33" t="s">
         <v>439</v>
@@ -3285,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C34" t="s">
         <v>440</v>
@@ -3311,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C35" t="s">
         <v>441</v>
@@ -3343,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C36" t="s">
         <v>442</v>
@@ -3375,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C37" t="s">
         <v>362</v>
@@ -3407,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C38" t="s">
         <v>437</v>
@@ -3439,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C39" t="s">
         <v>438</v>
@@ -3471,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C40" t="s">
         <v>439</v>
@@ -3503,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C41" t="s">
         <v>440</v>
@@ -3529,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C42" t="s">
         <v>441</v>
@@ -3561,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C43" t="s">
         <v>442</v>
@@ -3811,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C51" t="s">
         <v>362</v>
@@ -3843,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C52" t="s">
         <v>437</v>
@@ -3875,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C53" t="s">
         <v>438</v>
@@ -3907,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C54" t="s">
         <v>439</v>
@@ -3939,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C55" t="s">
         <v>440</v>
@@ -3965,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C56" t="s">
         <v>441</v>
@@ -3997,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C57" t="s">
         <v>442</v>
@@ -4029,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C58" t="s">
         <v>362</v>
@@ -4061,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C59" t="s">
         <v>437</v>
@@ -4093,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C60" t="s">
         <v>438</v>
@@ -4125,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C61" t="s">
         <v>439</v>
@@ -4157,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C62" t="s">
         <v>440</v>
@@ -4183,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C63" t="s">
         <v>441</v>
@@ -4215,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C64" t="s">
         <v>442</v>
@@ -4465,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C72" t="s">
         <v>362</v>
@@ -4497,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C73" t="s">
         <v>437</v>
@@ -4529,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C74" t="s">
         <v>438</v>
@@ -4561,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C75" t="s">
         <v>439</v>
@@ -4593,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C76" t="s">
         <v>440</v>
@@ -4619,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C77" t="s">
         <v>441</v>
@@ -4651,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C78" t="s">
         <v>442</v>
@@ -4683,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C79" t="s">
         <v>362</v>
@@ -4715,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C80" t="s">
         <v>437</v>
@@ -4747,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C81" t="s">
         <v>438</v>
@@ -4779,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C82" t="s">
         <v>439</v>
@@ -4811,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C83" t="s">
         <v>440</v>
@@ -4837,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C84" t="s">
         <v>441</v>
@@ -4869,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C85" t="s">
         <v>442</v>
@@ -5119,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C93" t="s">
         <v>362</v>
@@ -5151,7 +5149,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C94" t="s">
         <v>437</v>
@@ -5183,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C95" t="s">
         <v>438</v>
@@ -5215,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s">
         <v>439</v>
@@ -5247,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C97" t="s">
         <v>440</v>
@@ -5273,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C98" t="s">
         <v>441</v>
@@ -5305,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C99" t="s">
         <v>442</v>
@@ -5337,7 +5335,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C100" t="s">
         <v>362</v>
@@ -5369,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C101" t="s">
         <v>437</v>
@@ -5401,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C102" t="s">
         <v>438</v>
@@ -5433,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C103" t="s">
         <v>439</v>
@@ -5465,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C104" t="s">
         <v>440</v>
@@ -5491,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C105" t="s">
         <v>441</v>
@@ -5523,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C106" t="s">
         <v>442</v>
@@ -5773,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C114" t="s">
         <v>362</v>
@@ -5805,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C115" t="s">
         <v>437</v>
@@ -5837,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C116" t="s">
         <v>438</v>
@@ -5869,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C117" t="s">
         <v>439</v>
@@ -5901,7 +5899,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C118" t="s">
         <v>440</v>
@@ -5927,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C119" t="s">
         <v>441</v>
@@ -5959,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C120" t="s">
         <v>442</v>
@@ -5991,7 +5989,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C121" t="s">
         <v>362</v>
@@ -6023,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C122" t="s">
         <v>437</v>
@@ -6055,7 +6053,7 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C123" t="s">
         <v>438</v>
@@ -6087,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C124" t="s">
         <v>439</v>
@@ -6119,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C125" t="s">
         <v>440</v>
@@ -6145,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C126" t="s">
         <v>441</v>
@@ -6177,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C127" t="s">
         <v>442</v>
@@ -6427,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C135" t="s">
         <v>362</v>
@@ -6459,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C136" t="s">
         <v>437</v>
@@ -6491,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C137" t="s">
         <v>438</v>
@@ -6523,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C138" t="s">
         <v>439</v>
@@ -6555,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C139" t="s">
         <v>440</v>
@@ -6581,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C140" t="s">
         <v>441</v>
@@ -6613,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C141" t="s">
         <v>442</v>
@@ -6645,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C142" t="s">
         <v>362</v>
@@ -6677,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C143" t="s">
         <v>437</v>
@@ -6709,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C144" t="s">
         <v>438</v>
@@ -6741,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C145" t="s">
         <v>439</v>
@@ -6773,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C146" t="s">
         <v>440</v>
@@ -6799,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C147" t="s">
         <v>441</v>
@@ -6831,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C148" t="s">
         <v>442</v>
@@ -7081,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C156" t="s">
         <v>362</v>
@@ -7113,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C157" t="s">
         <v>437</v>
@@ -7145,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C158" t="s">
         <v>438</v>
@@ -7177,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C159" t="s">
         <v>439</v>
@@ -7209,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C160" t="s">
         <v>440</v>
@@ -7235,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="B161" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C161" t="s">
         <v>441</v>
@@ -7267,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C162" t="s">
         <v>442</v>
@@ -7299,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C163" t="s">
         <v>362</v>
@@ -7331,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="B164" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C164" t="s">
         <v>437</v>
@@ -7363,7 +7361,7 @@
         <v>0</v>
       </c>
       <c r="B165" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C165" t="s">
         <v>438</v>
@@ -7395,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C166" t="s">
         <v>439</v>
@@ -7427,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="B167" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C167" t="s">
         <v>440</v>
@@ -7453,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="B168" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C168" t="s">
         <v>441</v>
@@ -7485,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C169" t="s">
         <v>442</v>
@@ -7735,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="B177" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C177" t="s">
         <v>362</v>
@@ -7767,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C178" t="s">
         <v>437</v>
@@ -7799,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C179" t="s">
         <v>438</v>
@@ -7831,7 +7829,7 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C180" t="s">
         <v>439</v>
@@ -7863,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="B181" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C181" t="s">
         <v>440</v>
@@ -7889,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="B182" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C182" t="s">
         <v>441</v>
@@ -7921,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="B183" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C183" t="s">
         <v>442</v>
@@ -7953,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C184" t="s">
         <v>362</v>
@@ -7985,7 +7983,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C185" t="s">
         <v>437</v>
@@ -8017,7 +8015,7 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C186" t="s">
         <v>438</v>
@@ -8049,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C187" t="s">
         <v>439</v>
@@ -8081,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C188" t="s">
         <v>440</v>
@@ -8107,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C189" t="s">
         <v>441</v>
@@ -8139,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C190" t="s">
         <v>442</v>
@@ -8389,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C198" t="s">
         <v>362</v>
@@ -8421,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C199" t="s">
         <v>437</v>
@@ -8453,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="B200" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C200" t="s">
         <v>438</v>
@@ -8485,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C201" t="s">
         <v>439</v>
@@ -8517,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C202" t="s">
         <v>440</v>
@@ -8543,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="B203" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C203" t="s">
         <v>441</v>
@@ -8575,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="B204" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C204" t="s">
         <v>442</v>
@@ -8607,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="B205" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C205" t="s">
         <v>362</v>
@@ -8639,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="B206" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C206" t="s">
         <v>437</v>
@@ -8671,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="B207" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C207" t="s">
         <v>438</v>
@@ -8703,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="B208" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C208" t="s">
         <v>439</v>
@@ -8735,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="B209" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C209" t="s">
         <v>440</v>
@@ -8761,7 +8759,7 @@
         <v>0</v>
       </c>
       <c r="B210" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C210" t="s">
         <v>441</v>
@@ -8793,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="B211" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C211" t="s">
         <v>442</v>
@@ -9043,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="B219" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
         <v>362</v>
@@ -9075,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="B220" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C220" t="s">
         <v>437</v>
@@ -9107,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="B221" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C221" t="s">
         <v>438</v>
@@ -9139,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="B222" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C222" t="s">
         <v>439</v>
@@ -9171,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="B223" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C223" t="s">
         <v>440</v>
@@ -9197,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="B224" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" t="s">
         <v>441</v>
@@ -9229,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="B225" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C225" t="s">
         <v>442</v>
@@ -9261,7 +9259,7 @@
         <v>0</v>
       </c>
       <c r="B226" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C226" t="s">
         <v>362</v>
@@ -9293,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="B227" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C227" t="s">
         <v>437</v>
@@ -9325,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="B228" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C228" t="s">
         <v>438</v>
@@ -9357,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="B229" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C229" t="s">
         <v>439</v>
@@ -9389,7 +9387,7 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C230" t="s">
         <v>440</v>
@@ -9415,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="B231" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C231" t="s">
         <v>441</v>
@@ -9447,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="B232" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C232" t="s">
         <v>442</v>
@@ -9697,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="B240" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C240" t="s">
         <v>362</v>
@@ -9729,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="B241" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C241" t="s">
         <v>437</v>
@@ -9761,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="B242" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C242" t="s">
         <v>438</v>
@@ -9793,7 +9791,7 @@
         <v>0</v>
       </c>
       <c r="B243" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C243" t="s">
         <v>439</v>
@@ -9825,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="B244" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C244" t="s">
         <v>440</v>
@@ -9851,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="B245" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C245" t="s">
         <v>441</v>
@@ -9883,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="B246" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C246" t="s">
         <v>442</v>
@@ -9915,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="B247" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C247" t="s">
         <v>362</v>
@@ -9947,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C248" t="s">
         <v>437</v>
@@ -9979,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C249" t="s">
         <v>438</v>
@@ -10011,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C250" t="s">
         <v>439</v>
@@ -10043,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C251" t="s">
         <v>440</v>
@@ -10069,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C252" t="s">
         <v>441</v>
@@ -10101,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C253" t="s">
         <v>442</v>
@@ -10351,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="B261" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C261" t="s">
         <v>362</v>
@@ -10383,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="B262" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C262" t="s">
         <v>437</v>
@@ -10415,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C263" t="s">
         <v>438</v>
@@ -10447,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C264" t="s">
         <v>439</v>
@@ -10479,7 +10477,7 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C265" t="s">
         <v>440</v>
@@ -10505,7 +10503,7 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C266" t="s">
         <v>441</v>
@@ -10537,7 +10535,7 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C267" t="s">
         <v>442</v>
@@ -10569,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C268" t="s">
         <v>362</v>
@@ -10601,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C269" t="s">
         <v>437</v>
@@ -10633,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C270" t="s">
         <v>438</v>
@@ -10665,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C271" t="s">
         <v>439</v>
@@ -10697,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C272" t="s">
         <v>440</v>
@@ -10723,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C273" t="s">
         <v>441</v>
@@ -10755,7 +10753,7 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C274" t="s">
         <v>442</v>
@@ -11005,7 +11003,7 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C282" t="s">
         <v>362</v>
@@ -11037,7 +11035,7 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C283" t="s">
         <v>437</v>
@@ -11069,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C284" t="s">
         <v>438</v>
@@ -11101,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C285" t="s">
         <v>439</v>
@@ -11133,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C286" t="s">
         <v>440</v>
@@ -11159,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="B287" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C287" t="s">
         <v>441</v>
@@ -11191,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C288" t="s">
         <v>442</v>
@@ -11223,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C289" t="s">
         <v>362</v>
@@ -11255,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C290" t="s">
         <v>437</v>
@@ -11287,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C291" t="s">
         <v>438</v>
@@ -11319,7 +11317,7 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C292" t="s">
         <v>439</v>
@@ -11351,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C293" t="s">
         <v>440</v>
@@ -11377,7 +11375,7 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C294" t="s">
         <v>441</v>
@@ -11409,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C295" t="s">
         <v>442</v>
@@ -11659,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="B303" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C303" t="s">
         <v>362</v>
@@ -11691,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C304" t="s">
         <v>437</v>
@@ -11723,7 +11721,7 @@
         <v>0</v>
       </c>
       <c r="B305" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C305" t="s">
         <v>438</v>
@@ -11755,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="B306" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C306" t="s">
         <v>439</v>
@@ -11787,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="B307" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C307" t="s">
         <v>440</v>
@@ -11813,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="B308" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C308" t="s">
         <v>441</v>
@@ -11845,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="B309" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C309" t="s">
         <v>442</v>
@@ -11877,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="B310" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C310" t="s">
         <v>362</v>
@@ -11909,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="B311" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C311" t="s">
         <v>437</v>
@@ -11941,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="B312" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C312" t="s">
         <v>438</v>
@@ -11973,7 +11971,7 @@
         <v>0</v>
       </c>
       <c r="B313" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C313" t="s">
         <v>439</v>
@@ -12005,7 +12003,7 @@
         <v>0</v>
       </c>
       <c r="B314" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C314" t="s">
         <v>440</v>
@@ -12031,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="B315" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C315" t="s">
         <v>441</v>
@@ -12063,7 +12061,7 @@
         <v>0</v>
       </c>
       <c r="B316" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C316" t="s">
         <v>442</v>
@@ -12313,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="B324" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C324" t="s">
         <v>362</v>
@@ -12345,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="B325" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C325" t="s">
         <v>437</v>
@@ -12377,7 +12375,7 @@
         <v>0</v>
       </c>
       <c r="B326" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C326" t="s">
         <v>438</v>
@@ -12409,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="B327" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C327" t="s">
         <v>439</v>
@@ -12441,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C328" t="s">
         <v>440</v>
@@ -12467,7 +12465,7 @@
         <v>0</v>
       </c>
       <c r="B329" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C329" t="s">
         <v>441</v>
@@ -12499,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="B330" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C330" t="s">
         <v>442</v>
@@ -12531,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="B331" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C331" t="s">
         <v>362</v>
@@ -12563,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="B332" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C332" t="s">
         <v>437</v>
@@ -12595,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="B333" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C333" t="s">
         <v>438</v>
@@ -12627,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="B334" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C334" t="s">
         <v>439</v>
@@ -12659,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="B335" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C335" t="s">
         <v>440</v>
@@ -12685,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C336" t="s">
         <v>441</v>
@@ -12717,7 +12715,7 @@
         <v>0</v>
       </c>
       <c r="B337" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C337" t="s">
         <v>442</v>
@@ -12967,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C345" t="s">
         <v>362</v>
@@ -12999,7 +12997,7 @@
         <v>0</v>
       </c>
       <c r="B346" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C346" t="s">
         <v>437</v>
@@ -13031,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="B347" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C347" t="s">
         <v>438</v>
@@ -13063,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="B348" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C348" t="s">
         <v>439</v>
@@ -13095,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="B349" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C349" t="s">
         <v>440</v>
@@ -13121,7 +13119,7 @@
         <v>0</v>
       </c>
       <c r="B350" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C350" t="s">
         <v>441</v>
@@ -13153,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="B351" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C351" t="s">
         <v>442</v>
@@ -13185,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="B352" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C352" t="s">
         <v>362</v>
@@ -13217,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="B353" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C353" t="s">
         <v>437</v>
@@ -13249,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="B354" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C354" t="s">
         <v>438</v>
@@ -13281,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="B355" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C355" t="s">
         <v>439</v>
@@ -13313,7 +13311,7 @@
         <v>0</v>
       </c>
       <c r="B356" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C356" t="s">
         <v>440</v>
@@ -13339,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C357" t="s">
         <v>441</v>
@@ -13371,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="B358" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C358" t="s">
         <v>442</v>
@@ -13621,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="B366" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C366" t="s">
         <v>362</v>
@@ -13653,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="B367" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C367" t="s">
         <v>437</v>
@@ -13685,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="B368" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C368" t="s">
         <v>438</v>
@@ -13717,7 +13715,7 @@
         <v>0</v>
       </c>
       <c r="B369" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C369" t="s">
         <v>439</v>
@@ -13749,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="B370" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C370" t="s">
         <v>440</v>
@@ -13775,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="B371" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C371" t="s">
         <v>441</v>
@@ -13807,7 +13805,7 @@
         <v>0</v>
       </c>
       <c r="B372" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C372" t="s">
         <v>442</v>
@@ -13839,7 +13837,7 @@
         <v>0</v>
       </c>
       <c r="B373" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C373" t="s">
         <v>362</v>
@@ -13871,7 +13869,7 @@
         <v>0</v>
       </c>
       <c r="B374" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C374" t="s">
         <v>437</v>
@@ -13903,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="B375" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C375" t="s">
         <v>438</v>
@@ -13935,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B376" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C376" t="s">
         <v>439</v>
@@ -13967,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="B377" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C377" t="s">
         <v>440</v>
@@ -13993,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="B378" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C378" t="s">
         <v>441</v>
@@ -14025,7 +14023,7 @@
         <v>0</v>
       </c>
       <c r="B379" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C379" t="s">
         <v>442</v>
@@ -14275,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="B387" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C387" t="s">
         <v>362</v>
@@ -14307,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="B388" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C388" t="s">
         <v>437</v>
@@ -14339,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="B389" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C389" t="s">
         <v>438</v>
@@ -14371,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="B390" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C390" t="s">
         <v>439</v>
@@ -14403,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="B391" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C391" t="s">
         <v>440</v>
@@ -14429,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="B392" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C392" t="s">
         <v>441</v>
@@ -14461,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="B393" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C393" t="s">
         <v>442</v>
@@ -14493,7 +14491,7 @@
         <v>0</v>
       </c>
       <c r="B394" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C394" t="s">
         <v>362</v>
@@ -14525,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="B395" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C395" t="s">
         <v>437</v>
@@ -14557,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="B396" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C396" t="s">
         <v>438</v>
@@ -14589,7 +14587,7 @@
         <v>0</v>
       </c>
       <c r="B397" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C397" t="s">
         <v>439</v>
@@ -14621,7 +14619,7 @@
         <v>0</v>
       </c>
       <c r="B398" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C398" t="s">
         <v>440</v>
@@ -14647,7 +14645,7 @@
         <v>0</v>
       </c>
       <c r="B399" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C399" t="s">
         <v>441</v>
@@ -14679,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="B400" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C400" t="s">
         <v>442</v>
@@ -14929,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="B408" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C408" t="s">
         <v>362</v>
@@ -14961,7 +14959,7 @@
         <v>0</v>
       </c>
       <c r="B409" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C409" t="s">
         <v>437</v>
@@ -14993,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="B410" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C410" t="s">
         <v>438</v>
@@ -15025,7 +15023,7 @@
         <v>0</v>
       </c>
       <c r="B411" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C411" t="s">
         <v>439</v>
@@ -15057,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="B412" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C412" t="s">
         <v>440</v>
@@ -15083,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="B413" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C413" t="s">
         <v>441</v>
@@ -15115,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="B414" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C414" t="s">
         <v>442</v>
@@ -15147,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="B415" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C415" t="s">
         <v>362</v>
@@ -15179,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="B416" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C416" t="s">
         <v>437</v>
@@ -15211,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="B417" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C417" t="s">
         <v>438</v>
@@ -15243,7 +15241,7 @@
         <v>0</v>
       </c>
       <c r="B418" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C418" t="s">
         <v>439</v>
@@ -15275,7 +15273,7 @@
         <v>0</v>
       </c>
       <c r="B419" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C419" t="s">
         <v>440</v>
@@ -15301,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="B420" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C420" t="s">
         <v>441</v>
@@ -15333,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="B421" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C421" t="s">
         <v>442</v>

--- a/data/gendergap2.xlsx
+++ b/data/gendergap2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sedau\Desktop\20080404\Term-Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAA786D-8069-4810-8BC9-8AAC8BF953FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3528FD-DD42-41B1-8AD5-B7F49D4A690F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="360" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EAR_4MTH_SEX_ECO_CUR_NB_A-filte" sheetId="1" r:id="rId1"/>
@@ -1877,7 +1877,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2235,15 +2235,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
     <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
     <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="15.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -2259,22 +2264,22 @@
       <c r="D1" t="s">
         <v>357</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>358</v>
       </c>
       <c r="F1" t="s">
         <v>361</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>370</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>443</v>
       </c>
     </row>
@@ -2291,19 +2296,19 @@
       <c r="D2">
         <v>2022</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>362</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>23802</v>
       </c>
       <c r="H2" t="s">
         <v>363</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>23802</v>
       </c>
       <c r="J2" s="1">
@@ -2323,19 +2328,19 @@
       <c r="D3">
         <v>2022</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>364</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>45050</v>
       </c>
       <c r="H3" t="s">
         <v>431</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>41487</v>
       </c>
       <c r="J3" s="1">
@@ -2355,19 +2360,19 @@
       <c r="D4">
         <v>2022</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>365</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>18050</v>
       </c>
       <c r="H4" t="s">
         <v>432</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>32203</v>
       </c>
       <c r="J4" s="1">
@@ -2387,19 +2392,19 @@
       <c r="D5">
         <v>2022</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>366</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>35156</v>
       </c>
       <c r="H5" t="s">
         <v>433</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>34001</v>
       </c>
       <c r="J5" s="1">
@@ -2419,13 +2424,13 @@
       <c r="F6" t="s">
         <v>367</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>34001</v>
       </c>
       <c r="H6" t="s">
         <v>434</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>15738</v>
       </c>
       <c r="J6" s="1">
@@ -2445,19 +2450,19 @@
       <c r="D7">
         <v>2022</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
         <v>368</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>16103</v>
       </c>
       <c r="H7" t="s">
         <v>435</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>20121</v>
       </c>
       <c r="J7" s="1">
@@ -2477,19 +2482,19 @@
       <c r="D8">
         <v>2022</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
         <v>369</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>29952</v>
       </c>
       <c r="H8" t="s">
         <v>436</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>35462</v>
       </c>
       <c r="J8" s="1">
@@ -2509,19 +2514,19 @@
       <c r="D9">
         <v>2022</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" t="s">
         <v>362</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>24898</v>
       </c>
       <c r="H9" t="s">
         <v>363</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>24898</v>
       </c>
       <c r="J9" s="1">
@@ -2541,19 +2546,19 @@
       <c r="D10">
         <v>2022</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>364</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>44989</v>
       </c>
       <c r="H10" t="s">
         <v>431</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>27973</v>
       </c>
       <c r="J10" s="1">
@@ -2573,19 +2578,19 @@
       <c r="D11">
         <v>2022</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>365</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>28246</v>
       </c>
       <c r="H11" t="s">
         <v>432</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>45172</v>
       </c>
       <c r="J11" s="1">
@@ -2605,19 +2610,19 @@
       <c r="D12">
         <v>2022</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>366</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>30773</v>
       </c>
       <c r="H12" t="s">
         <v>433</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>31444</v>
       </c>
       <c r="J12" s="1">
@@ -2637,13 +2642,13 @@
       <c r="F13" t="s">
         <v>367</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>34366</v>
       </c>
       <c r="H13" t="s">
         <v>434</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>12816</v>
       </c>
       <c r="J13" s="1">
@@ -2663,19 +2668,19 @@
       <c r="D14">
         <v>2022</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>368</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>15008</v>
       </c>
       <c r="H14" t="s">
         <v>435</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>20486</v>
       </c>
       <c r="J14" s="1">
@@ -2695,19 +2700,19 @@
       <c r="D15">
         <v>2022</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>369</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>33604</v>
       </c>
       <c r="H15" t="s">
         <v>436</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>45080</v>
       </c>
       <c r="J15" s="1">
@@ -2727,19 +2732,19 @@
       <c r="D16">
         <v>2022</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>362</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>22341</v>
       </c>
       <c r="H16" t="s">
         <v>363</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>22341</v>
       </c>
       <c r="J16" s="1">
@@ -2759,19 +2764,19 @@
       <c r="D17">
         <v>2022</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>364</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>45111</v>
       </c>
       <c r="H17" t="s">
         <v>431</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>17349</v>
       </c>
       <c r="J17" s="1">
@@ -2791,22 +2796,22 @@
       <c r="D18">
         <v>2022</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>365</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>29037</v>
       </c>
       <c r="H18" t="s">
         <v>432</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>31472</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="1" t="s">
         <v>405</v>
       </c>
     </row>
@@ -2823,19 +2828,19 @@
       <c r="D19">
         <v>2022</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>366</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>45265</v>
       </c>
       <c r="H19" t="s">
         <v>433</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>44960</v>
       </c>
       <c r="J19" s="1">
@@ -2855,13 +2860,13 @@
       <c r="F20" t="s">
         <v>367</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>33635</v>
       </c>
       <c r="H20" t="s">
         <v>434</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>19025</v>
       </c>
       <c r="J20" s="1">
@@ -2881,19 +2886,19 @@
       <c r="D21">
         <v>2022</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>368</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>17199</v>
       </c>
       <c r="H21" t="s">
         <v>435</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>19391</v>
       </c>
       <c r="J21" s="1">
@@ -2913,19 +2918,19 @@
       <c r="D22">
         <v>2022</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>369</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>27030</v>
       </c>
       <c r="H22" t="s">
         <v>436</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>31079</v>
       </c>
       <c r="J22" s="1">
@@ -2945,19 +2950,19 @@
       <c r="D23">
         <v>2021</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>362</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>12905</v>
       </c>
       <c r="H23" t="s">
         <v>363</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>12905</v>
       </c>
       <c r="J23" s="1">
@@ -2977,19 +2982,19 @@
       <c r="D24">
         <v>2021</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>364</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>44743</v>
       </c>
       <c r="H24" t="s">
         <v>431</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>26908</v>
       </c>
       <c r="J24" s="1">
@@ -3009,19 +3014,19 @@
       <c r="D25">
         <v>2021</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>365</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>21763</v>
       </c>
       <c r="H25" t="s">
         <v>432</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>45112</v>
       </c>
       <c r="J25" s="1">
@@ -3041,19 +3046,19 @@
       <c r="D26">
         <v>2021</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>366</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>45145</v>
       </c>
       <c r="H26" t="s">
         <v>433</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>22737</v>
       </c>
       <c r="J26" s="1">
@@ -3073,13 +3078,13 @@
       <c r="F27" t="s">
         <v>367</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>27851</v>
       </c>
       <c r="H27" t="s">
         <v>434</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>42095</v>
       </c>
       <c r="J27" s="1">
@@ -3099,19 +3104,19 @@
       <c r="D28">
         <v>2021</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F28" t="s">
         <v>368</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>27820</v>
       </c>
       <c r="H28" t="s">
         <v>435</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>44287</v>
       </c>
       <c r="J28" s="1">
@@ -3131,19 +3136,19 @@
       <c r="D29">
         <v>2021</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>369</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="1">
         <v>20852</v>
       </c>
       <c r="H29" t="s">
         <v>436</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>16528</v>
       </c>
       <c r="J29" s="1">
@@ -3163,19 +3168,19 @@
       <c r="D30">
         <v>2021</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F30" t="s">
         <v>362</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>17288</v>
       </c>
       <c r="H30" t="s">
         <v>363</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>17288</v>
       </c>
       <c r="J30" s="1">
@@ -3195,19 +3200,19 @@
       <c r="D31">
         <v>2021</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>364</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="1">
         <v>11841</v>
       </c>
       <c r="H31" t="s">
         <v>431</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>19268</v>
       </c>
       <c r="J31" s="1">
@@ -3227,22 +3232,22 @@
       <c r="D32">
         <v>2021</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>365</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>45114</v>
       </c>
       <c r="H32" t="s">
         <v>432</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>34820</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="1" t="s">
         <v>406</v>
       </c>
     </row>
@@ -3259,19 +3264,19 @@
       <c r="D33">
         <v>2021</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>366</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>45176</v>
       </c>
       <c r="H33" t="s">
         <v>433</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>22372</v>
       </c>
       <c r="J33" s="1">
@@ -3291,13 +3296,13 @@
       <c r="F34" t="s">
         <v>367</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>30773</v>
       </c>
       <c r="H34" t="s">
         <v>434</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>44930</v>
       </c>
       <c r="J34" s="1">
@@ -3317,19 +3322,19 @@
       <c r="D35">
         <v>2021</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F35" t="s">
         <v>368</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="1">
         <v>27454</v>
       </c>
       <c r="H35" t="s">
         <v>435</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>45748</v>
       </c>
       <c r="J35" s="1">
@@ -3349,19 +3354,19 @@
       <c r="D36">
         <v>2021</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
         <v>369</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>19391</v>
       </c>
       <c r="H36" t="s">
         <v>436</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>12510</v>
       </c>
       <c r="J36" s="1">
@@ -3381,19 +3386,19 @@
       <c r="D37">
         <v>2021</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F37" t="s">
         <v>362</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>44317</v>
       </c>
       <c r="H37" t="s">
         <v>363</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>44317</v>
       </c>
       <c r="J37" s="1">
@@ -3413,19 +3418,19 @@
       <c r="D38">
         <v>2021</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>364</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>44935</v>
       </c>
       <c r="H38" t="s">
         <v>431</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>45177</v>
       </c>
       <c r="J38" s="1">
@@ -3445,19 +3450,19 @@
       <c r="D39">
         <v>2021</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F39" t="s">
         <v>365</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="1">
         <v>44835</v>
       </c>
       <c r="H39" t="s">
         <v>432</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>15462</v>
       </c>
       <c r="J39" s="1">
@@ -3477,19 +3482,19 @@
       <c r="D40">
         <v>2021</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F40" t="s">
         <v>366</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="1">
         <v>45053</v>
       </c>
       <c r="H40" t="s">
         <v>433</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>23102</v>
       </c>
       <c r="J40" s="1">
@@ -3509,13 +3514,13 @@
       <c r="F41" t="s">
         <v>367</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="1">
         <v>45111</v>
       </c>
       <c r="H41" t="s">
         <v>434</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>44652</v>
       </c>
       <c r="J41" s="1">
@@ -3535,19 +3540,19 @@
       <c r="D42">
         <v>2021</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F42" t="s">
         <v>368</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="1">
         <v>28550</v>
       </c>
       <c r="H42" t="s">
         <v>435</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>42461</v>
       </c>
       <c r="J42" s="1">
@@ -3567,19 +3572,19 @@
       <c r="D43">
         <v>2021</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F43" t="s">
         <v>369</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>45079</v>
       </c>
       <c r="H43" t="s">
         <v>436</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>21276</v>
       </c>
       <c r="J43" s="1">
@@ -3599,19 +3604,19 @@
       <c r="D44">
         <v>2020</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F44" t="s">
         <v>362</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="1">
         <v>45054</v>
       </c>
       <c r="H44" t="s">
         <v>363</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>45054</v>
       </c>
       <c r="J44" s="1">
@@ -3631,19 +3636,19 @@
       <c r="D45">
         <v>2020</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F45" t="s">
         <v>364</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="1">
         <v>35370</v>
       </c>
       <c r="H45" t="s">
         <v>431</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>387</v>
       </c>
       <c r="J45" s="1">
@@ -3663,19 +3668,19 @@
       <c r="D46">
         <v>2020</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>365</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="1">
         <v>20760</v>
       </c>
       <c r="H46" t="s">
         <v>432</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="1">
         <v>16285</v>
       </c>
       <c r="J46" s="1">
@@ -3695,19 +3700,19 @@
       <c r="D47">
         <v>2020</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F47" t="s">
         <v>366</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="1">
         <v>17076</v>
       </c>
       <c r="H47" t="s">
         <v>433</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="1">
         <v>15128</v>
       </c>
       <c r="J47" s="1">
@@ -3727,13 +3732,13 @@
       <c r="F48" t="s">
         <v>367</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="1">
         <v>12236</v>
       </c>
       <c r="H48" t="s">
         <v>434</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>13302</v>
       </c>
       <c r="J48" s="1">
@@ -3753,19 +3758,19 @@
       <c r="D49">
         <v>2020</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F49" t="s">
         <v>368</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="1">
         <v>32629</v>
       </c>
       <c r="H49" t="s">
         <v>435</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>26816</v>
       </c>
       <c r="J49" s="1">
@@ -3785,19 +3790,19 @@
       <c r="D50">
         <v>2020</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F50" t="s">
         <v>369</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="1">
         <v>44989</v>
       </c>
       <c r="H50" t="s">
         <v>436</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>18080</v>
       </c>
       <c r="J50" s="1">
@@ -3817,19 +3822,19 @@
       <c r="D51">
         <v>2020</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F51" t="s">
         <v>362</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="1">
         <v>45145</v>
       </c>
       <c r="H51" t="s">
         <v>363</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>45145</v>
       </c>
       <c r="J51" s="1">
@@ -3849,19 +3854,19 @@
       <c r="D52">
         <v>2020</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F52" t="s">
         <v>364</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="1">
         <v>36404</v>
       </c>
       <c r="H52" t="s">
         <v>431</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>15</v>
       </c>
       <c r="J52" s="1">
@@ -3881,22 +3886,22 @@
       <c r="D53">
         <v>2020</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F53" t="s">
         <v>365</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="1">
         <v>32782</v>
       </c>
       <c r="H53" t="s">
         <v>432</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>19572</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="1" t="s">
         <v>407</v>
       </c>
     </row>
@@ -3913,19 +3918,19 @@
       <c r="D54">
         <v>2020</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F54" t="s">
         <v>366</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="1">
         <v>35674</v>
       </c>
       <c r="H54" t="s">
         <v>433</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>42887</v>
       </c>
       <c r="J54" s="1">
@@ -3945,13 +3950,13 @@
       <c r="F55" t="s">
         <v>367</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="1">
         <v>31199</v>
       </c>
       <c r="H55" t="s">
         <v>434</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>32264</v>
       </c>
       <c r="J55" s="1">
@@ -3971,19 +3976,19 @@
       <c r="D56">
         <v>2020</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F56" t="s">
         <v>368</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="1">
         <v>12540</v>
       </c>
       <c r="H56" t="s">
         <v>435</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>13302</v>
       </c>
       <c r="J56" s="1">
@@ -4003,19 +4008,19 @@
       <c r="D57">
         <v>2020</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F57" t="s">
         <v>369</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="1">
         <v>44961</v>
       </c>
       <c r="H57" t="s">
         <v>436</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>31199</v>
       </c>
       <c r="J57" s="1">
@@ -4035,19 +4040,19 @@
       <c r="D58">
         <v>2020</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <v>3925</v>
       </c>
       <c r="F58" t="s">
         <v>362</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="1">
         <v>12997</v>
       </c>
       <c r="H58" t="s">
         <v>363</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>12997</v>
       </c>
       <c r="J58" s="1">
@@ -4067,22 +4072,22 @@
       <c r="D59">
         <v>2020</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F59" t="s">
         <v>364</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="1" t="s">
         <v>371</v>
       </c>
       <c r="H59" t="s">
         <v>431</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="1" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4099,19 +4104,19 @@
       <c r="D60">
         <v>2020</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F60" t="s">
         <v>365</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="1">
         <v>29190</v>
       </c>
       <c r="H60" t="s">
         <v>432</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>12267</v>
       </c>
       <c r="J60" s="1">
@@ -4131,19 +4136,19 @@
       <c r="D61">
         <v>2020</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F61" t="s">
         <v>366</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="1">
         <v>44937</v>
       </c>
       <c r="H61" t="s">
         <v>433</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>24624</v>
       </c>
       <c r="J61" s="1">
@@ -4163,13 +4168,13 @@
       <c r="F62" t="s">
         <v>367</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="1">
         <v>28307</v>
       </c>
       <c r="H62" t="s">
         <v>434</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>32660</v>
       </c>
       <c r="J62" s="1">
@@ -4189,19 +4194,19 @@
       <c r="D63">
         <v>2020</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F63" t="s">
         <v>368</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>16224</v>
       </c>
       <c r="H63" t="s">
         <v>435</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>42186</v>
       </c>
       <c r="J63" s="1">
@@ -4221,19 +4226,19 @@
       <c r="D64">
         <v>2020</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F64" t="s">
         <v>369</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="1">
         <v>45020</v>
       </c>
       <c r="H64" t="s">
         <v>436</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="1">
         <v>47331</v>
       </c>
       <c r="J64" s="1">
@@ -4253,19 +4258,19 @@
       <c r="D65">
         <v>2019</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F65" t="s">
         <v>362</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="1">
         <v>24532</v>
       </c>
       <c r="H65" t="s">
         <v>363</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>24532</v>
       </c>
       <c r="J65" s="1">
@@ -4285,19 +4290,19 @@
       <c r="D66">
         <v>2019</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F66" t="s">
         <v>364</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="1">
         <v>47209</v>
       </c>
       <c r="H66" t="s">
         <v>431</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>14458</v>
       </c>
       <c r="J66" s="1">
@@ -4317,19 +4322,19 @@
       <c r="D67">
         <v>2019</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F67" t="s">
         <v>365</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="1">
         <v>41791</v>
       </c>
       <c r="H67" t="s">
         <v>432</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>26359</v>
       </c>
       <c r="J67" s="1">
@@ -4349,19 +4354,19 @@
       <c r="D68">
         <v>2019</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F68" t="s">
         <v>366</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="1">
         <v>30773</v>
       </c>
       <c r="H68" t="s">
         <v>433</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>26696</v>
       </c>
       <c r="J68" s="1">
@@ -4381,13 +4386,13 @@
       <c r="F69" t="s">
         <v>367</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="1">
         <v>31444</v>
       </c>
       <c r="H69" t="s">
         <v>434</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>45109</v>
       </c>
       <c r="J69" s="1">
@@ -4407,22 +4412,22 @@
       <c r="D70">
         <v>2019</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F70" t="s">
         <v>368</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="1">
         <v>16469</v>
       </c>
       <c r="H70" t="s">
         <v>435</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>20852</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="1" t="s">
         <v>409</v>
       </c>
     </row>
@@ -4439,19 +4444,19 @@
       <c r="D71">
         <v>2019</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F71" t="s">
         <v>369</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="1">
         <v>44959</v>
       </c>
       <c r="H71" t="s">
         <v>436</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>35462</v>
       </c>
       <c r="J71" s="1">
@@ -4471,22 +4476,22 @@
       <c r="D72">
         <v>2019</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F72" t="s">
         <v>362</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="1">
         <v>26359</v>
       </c>
       <c r="H72" t="s">
         <v>363</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>26359</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="1">
         <v>77634</v>
       </c>
     </row>
@@ -4503,19 +4508,19 @@
       <c r="D73">
         <v>2019</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F73" t="s">
         <v>364</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="1">
         <v>28185</v>
       </c>
       <c r="H73" t="s">
         <v>431</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>45025</v>
       </c>
       <c r="J73" s="1">
@@ -4535,19 +4540,19 @@
       <c r="D74">
         <v>2019</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <v>5081</v>
       </c>
       <c r="F74" t="s">
         <v>365</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="1">
         <v>43221</v>
       </c>
       <c r="H74" t="s">
         <v>432</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>25993</v>
       </c>
       <c r="J74" s="1">
@@ -4567,19 +4572,19 @@
       <c r="D75">
         <v>2019</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F75" t="s">
         <v>366</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="1">
         <v>31138</v>
       </c>
       <c r="H75" t="s">
         <v>433</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>21582</v>
       </c>
       <c r="J75" s="1">
@@ -4599,13 +4604,13 @@
       <c r="F76" t="s">
         <v>367</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="1">
         <v>25235</v>
       </c>
       <c r="H76" t="s">
         <v>434</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>26330</v>
       </c>
       <c r="J76" s="1">
@@ -4625,22 +4630,22 @@
       <c r="D77">
         <v>2019</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F77" t="s">
         <v>368</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="1">
         <v>17930</v>
       </c>
       <c r="H77" t="s">
         <v>435</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="1">
         <v>17564</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="1" t="s">
         <v>410</v>
       </c>
     </row>
@@ -4657,22 +4662,22 @@
       <c r="D78">
         <v>2019</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F78" t="s">
         <v>369</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="1">
         <v>44928</v>
       </c>
       <c r="H78" t="s">
         <v>436</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>45171</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="1" t="s">
         <v>411</v>
       </c>
     </row>
@@ -4689,19 +4694,19 @@
       <c r="D79">
         <v>2019</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F79" t="s">
         <v>362</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="1">
         <v>22341</v>
       </c>
       <c r="H79" t="s">
         <v>363</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>22341</v>
       </c>
       <c r="J79" s="1">
@@ -4721,19 +4726,19 @@
       <c r="D80">
         <v>2019</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F80" t="s">
         <v>364</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="1">
         <v>12540</v>
       </c>
       <c r="H80" t="s">
         <v>431</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>12601</v>
       </c>
       <c r="J80" s="1">
@@ -4753,19 +4758,19 @@
       <c r="D81">
         <v>2019</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F81" t="s">
         <v>365</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="1">
         <v>27942</v>
       </c>
       <c r="H81" t="s">
         <v>432</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="1">
         <v>26724</v>
       </c>
       <c r="J81" s="1">
@@ -4785,19 +4790,19 @@
       <c r="D82">
         <v>2019</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F82" t="s">
         <v>366</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="1">
         <v>30042</v>
       </c>
       <c r="H82" t="s">
         <v>433</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>32540</v>
       </c>
       <c r="J82" s="1">
@@ -4817,13 +4822,13 @@
       <c r="F83" t="s">
         <v>367</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="1">
         <v>44960</v>
       </c>
       <c r="H83" t="s">
         <v>434</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="1">
         <v>24869</v>
       </c>
       <c r="J83" s="1">
@@ -4843,22 +4848,22 @@
       <c r="D84">
         <v>2019</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F84" t="s">
         <v>368</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="1">
         <v>15373</v>
       </c>
       <c r="H84" t="s">
         <v>435</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="1">
         <v>24869</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="1" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4875,19 +4880,19 @@
       <c r="D85">
         <v>2019</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F85" t="s">
         <v>369</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>44987</v>
       </c>
       <c r="H85" t="s">
         <v>436</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="1">
         <v>45080</v>
       </c>
       <c r="J85" s="1">
@@ -4907,19 +4912,19 @@
       <c r="D86">
         <v>2018</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F86" t="s">
         <v>362</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="1">
         <v>45172</v>
       </c>
       <c r="H86" t="s">
         <v>363</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="1">
         <v>45172</v>
       </c>
       <c r="J86" s="1">
@@ -4939,19 +4944,19 @@
       <c r="D87">
         <v>2018</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F87" t="s">
         <v>364</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="1">
         <v>23468</v>
       </c>
       <c r="H87" t="s">
         <v>431</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="1">
         <v>22494</v>
       </c>
       <c r="J87" s="1">
@@ -4971,19 +4976,19 @@
       <c r="D88">
         <v>2018</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F88" t="s">
         <v>365</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="1">
         <v>45113</v>
       </c>
       <c r="H88" t="s">
         <v>432</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="1">
         <v>34394</v>
       </c>
       <c r="J88" s="1">
@@ -5003,19 +5008,19 @@
       <c r="D89">
         <v>2018</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F89" t="s">
         <v>366</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="1">
         <v>42856</v>
       </c>
       <c r="H89" t="s">
         <v>433</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="1">
         <v>35827</v>
       </c>
       <c r="J89" s="1">
@@ -5035,13 +5040,13 @@
       <c r="F90" t="s">
         <v>367</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="1">
         <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>434</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="1">
         <v>29983</v>
       </c>
       <c r="J90" s="1">
@@ -5061,19 +5066,19 @@
       <c r="D91">
         <v>2018</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F91" t="s">
         <v>368</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="1">
         <v>16834</v>
       </c>
       <c r="H91" t="s">
         <v>435</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="1">
         <v>32174</v>
       </c>
       <c r="J91" s="1">
@@ -5093,19 +5098,19 @@
       <c r="D92">
         <v>2018</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F92" t="s">
         <v>369</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="1">
         <v>45109</v>
       </c>
       <c r="H92" t="s">
         <v>436</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="1">
         <v>46082</v>
       </c>
       <c r="J92" s="1">
@@ -5125,19 +5130,19 @@
       <c r="D93">
         <v>2018</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F93" t="s">
         <v>362</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="1">
         <v>34759</v>
       </c>
       <c r="H93" t="s">
         <v>363</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="1">
         <v>34759</v>
       </c>
       <c r="J93" s="1">
@@ -5157,19 +5162,19 @@
       <c r="D94">
         <v>2018</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F94" t="s">
         <v>364</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="1">
         <v>29646</v>
       </c>
       <c r="H94" t="s">
         <v>431</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="1">
         <v>19238</v>
       </c>
       <c r="J94" s="1">
@@ -5189,19 +5194,19 @@
       <c r="D95">
         <v>2018</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F95" t="s">
         <v>365</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="1">
         <v>44713</v>
       </c>
       <c r="H95" t="s">
         <v>432</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="1">
         <v>31107</v>
       </c>
       <c r="J95" s="1">
@@ -5221,19 +5226,19 @@
       <c r="D96">
         <v>2018</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F96" t="s">
         <v>366</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="1">
         <v>42491</v>
       </c>
       <c r="H96" t="s">
         <v>433</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="1">
         <v>30713</v>
       </c>
       <c r="J96" s="1">
@@ -5253,13 +5258,13 @@
       <c r="F97" t="s">
         <v>367</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="1">
         <v>34366</v>
       </c>
       <c r="H97" t="s">
         <v>434</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="1">
         <v>45140</v>
       </c>
       <c r="J97" s="1">
@@ -5279,19 +5284,19 @@
       <c r="D98">
         <v>2018</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F98" t="s">
         <v>368</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="1">
         <v>17199</v>
       </c>
       <c r="H98" t="s">
         <v>435</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="1">
         <v>44929</v>
       </c>
       <c r="J98" s="1">
@@ -5311,19 +5316,19 @@
       <c r="D99">
         <v>2018</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F99" t="s">
         <v>369</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="1">
         <v>45171</v>
       </c>
       <c r="H99" t="s">
         <v>436</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="1">
         <v>44256</v>
       </c>
       <c r="J99" s="1">
@@ -5343,19 +5348,19 @@
       <c r="D100">
         <v>2018</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <v>3521</v>
       </c>
       <c r="F100" t="s">
         <v>362</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="1">
         <v>30742</v>
       </c>
       <c r="H100" t="s">
         <v>363</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="1">
         <v>30742</v>
       </c>
       <c r="J100" s="1">
@@ -5375,22 +5380,22 @@
       <c r="D101">
         <v>2018</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F101" t="s">
         <v>364</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="1">
         <v>11475</v>
       </c>
       <c r="H101" t="s">
         <v>431</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="1">
         <v>24654</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="1" t="s">
         <v>413</v>
       </c>
     </row>
@@ -5407,19 +5412,19 @@
       <c r="D102">
         <v>2018</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F102" t="s">
         <v>365</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="1">
         <v>19906</v>
       </c>
       <c r="H102" t="s">
         <v>432</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="1">
         <v>45050</v>
       </c>
       <c r="J102" s="1">
@@ -5439,19 +5444,19 @@
       <c r="D103">
         <v>2018</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F103" t="s">
         <v>366</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="1">
         <v>43586</v>
       </c>
       <c r="H103" t="s">
         <v>433</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="1">
         <v>42064</v>
       </c>
       <c r="J103" s="1">
@@ -5471,13 +5476,13 @@
       <c r="F104" t="s">
         <v>367</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="1">
         <v>45080</v>
       </c>
       <c r="H104" t="s">
         <v>434</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="1">
         <v>30713</v>
       </c>
       <c r="J104" s="1">
@@ -5497,19 +5502,19 @@
       <c r="D105">
         <v>2018</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F105" t="s">
         <v>368</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="1">
         <v>16469</v>
       </c>
       <c r="H105" t="s">
         <v>435</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="1">
         <v>26696</v>
       </c>
       <c r="J105" s="1">
@@ -5529,19 +5534,19 @@
       <c r="D106">
         <v>2018</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F106" t="s">
         <v>369</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="1">
         <v>45079</v>
       </c>
       <c r="H106" t="s">
         <v>436</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="1">
         <v>11749</v>
       </c>
       <c r="J106" s="1">
@@ -5561,19 +5566,19 @@
       <c r="D107">
         <v>2017</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F107" t="s">
         <v>362</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="1">
         <v>13241</v>
       </c>
       <c r="H107" t="s">
         <v>363</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="1">
         <v>13241</v>
       </c>
       <c r="J107" s="1">
@@ -5593,19 +5598,19 @@
       <c r="D108">
         <v>2017</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="1" t="s">
         <v>89</v>
       </c>
       <c r="F108" t="s">
         <v>364</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="1">
         <v>21641</v>
       </c>
       <c r="H108" t="s">
         <v>431</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="1">
         <v>45536</v>
       </c>
       <c r="J108" s="1">
@@ -5625,19 +5630,19 @@
       <c r="D109">
         <v>2017</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F109" t="s">
         <v>365</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="1">
         <v>33420</v>
       </c>
       <c r="H109" t="s">
         <v>432</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="1">
         <v>20546</v>
       </c>
       <c r="J109" s="1">
@@ -5657,19 +5662,19 @@
       <c r="D110">
         <v>2017</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F110" t="s">
         <v>366</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="1">
         <v>28246</v>
       </c>
       <c r="H110" t="s">
         <v>433</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="1">
         <v>16862</v>
       </c>
       <c r="J110" s="1">
@@ -5689,13 +5694,13 @@
       <c r="F111" t="s">
         <v>367</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="1">
         <v>17227</v>
       </c>
       <c r="H111" t="s">
         <v>434</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="1">
         <v>42430</v>
       </c>
       <c r="J111" s="1">
@@ -5715,19 +5720,19 @@
       <c r="D112">
         <v>2017</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="1" t="s">
         <v>92</v>
       </c>
       <c r="F112" t="s">
         <v>368</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="1">
         <v>45109</v>
       </c>
       <c r="H112" t="s">
         <v>435</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="1">
         <v>45233</v>
       </c>
       <c r="J112" s="1">
@@ -5747,19 +5752,19 @@
       <c r="D113">
         <v>2017</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="1" t="s">
         <v>93</v>
       </c>
       <c r="F113" t="s">
         <v>369</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="1">
         <v>41671</v>
       </c>
       <c r="H113" t="s">
         <v>436</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="1">
         <v>21610</v>
       </c>
       <c r="J113" s="1">
@@ -5779,19 +5784,19 @@
       <c r="D114">
         <v>2017</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F114" t="s">
         <v>362</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="1">
         <v>45020</v>
       </c>
       <c r="H114" t="s">
         <v>363</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="1">
         <v>45020</v>
       </c>
       <c r="J114" s="1">
@@ -5811,19 +5816,19 @@
       <c r="D115">
         <v>2017</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F115" t="s">
         <v>364</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="1">
         <v>45172</v>
       </c>
       <c r="H115" t="s">
         <v>431</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="1">
         <v>11963</v>
       </c>
       <c r="J115" s="1">
@@ -5843,19 +5848,19 @@
       <c r="D116">
         <v>2017</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F116" t="s">
         <v>365</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="1">
         <v>45114</v>
       </c>
       <c r="H116" t="s">
         <v>432</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="1">
         <v>20546</v>
       </c>
       <c r="J116" s="1">
@@ -5875,19 +5880,19 @@
       <c r="D117">
         <v>2017</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>97</v>
       </c>
       <c r="F117" t="s">
         <v>366</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="1">
         <v>28976</v>
       </c>
       <c r="H117" t="s">
         <v>433</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="1">
         <v>44986</v>
       </c>
       <c r="J117" s="1">
@@ -5907,13 +5912,13 @@
       <c r="F118" t="s">
         <v>367</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="1">
         <v>46813</v>
       </c>
       <c r="H118" t="s">
         <v>434</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="1">
         <v>45019</v>
       </c>
       <c r="J118" s="1">
@@ -5933,19 +5938,19 @@
       <c r="D119">
         <v>2017</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F119" t="s">
         <v>368</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="1">
         <v>45079</v>
       </c>
       <c r="H119" t="s">
         <v>435</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="1">
         <v>42064</v>
       </c>
       <c r="J119" s="1">
@@ -5965,19 +5970,19 @@
       <c r="D120">
         <v>2017</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F120" t="s">
         <v>369</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="1">
         <v>41671</v>
       </c>
       <c r="H120" t="s">
         <v>436</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="1">
         <v>13940</v>
       </c>
       <c r="J120" s="1">
@@ -5997,19 +6002,19 @@
       <c r="D121">
         <v>2017</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="1" t="s">
         <v>100</v>
       </c>
       <c r="F121" t="s">
         <v>362</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="1">
         <v>11414</v>
       </c>
       <c r="H121" t="s">
         <v>363</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="1">
         <v>11414</v>
       </c>
       <c r="J121" s="1">
@@ -6029,19 +6034,19 @@
       <c r="D122">
         <v>2017</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="1" t="s">
         <v>101</v>
       </c>
       <c r="F122" t="s">
         <v>364</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="1">
         <v>34455</v>
       </c>
       <c r="H122" t="s">
         <v>431</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="1">
         <v>45177</v>
       </c>
       <c r="J122" s="1">
@@ -6061,19 +6066,19 @@
       <c r="D123">
         <v>2017</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="1" t="s">
         <v>102</v>
       </c>
       <c r="F123" t="s">
         <v>365</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="1">
         <v>13394</v>
       </c>
       <c r="H123" t="s">
         <v>432</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="1">
         <v>20911</v>
       </c>
       <c r="J123" s="1">
@@ -6093,19 +6098,19 @@
       <c r="D124">
         <v>2017</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F124" t="s">
         <v>366</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="1">
         <v>26785</v>
       </c>
       <c r="H124" t="s">
         <v>433</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="1">
         <v>26359</v>
       </c>
       <c r="J124" s="1">
@@ -6125,13 +6130,13 @@
       <c r="F125" t="s">
         <v>367</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="1">
         <v>23437</v>
       </c>
       <c r="H125" t="s">
         <v>434</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="1">
         <v>47178</v>
       </c>
       <c r="J125" s="1">
@@ -6151,19 +6156,19 @@
       <c r="D126">
         <v>2017</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="1" t="s">
         <v>104</v>
       </c>
       <c r="F126" t="s">
         <v>368</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="1">
         <v>45140</v>
       </c>
       <c r="H126" t="s">
         <v>435</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="1">
         <v>45080</v>
       </c>
       <c r="J126" s="1">
@@ -6183,19 +6188,19 @@
       <c r="D127">
         <v>2017</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F127" t="s">
         <v>369</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="1">
         <v>41306</v>
       </c>
       <c r="H127" t="s">
         <v>436</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="1">
         <v>30742</v>
       </c>
       <c r="J127" s="1">
@@ -6215,19 +6220,19 @@
       <c r="D128">
         <v>2016</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E128" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F128" t="s">
         <v>362</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="1">
         <v>31868</v>
       </c>
       <c r="H128" t="s">
         <v>363</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="1">
         <v>31868</v>
       </c>
       <c r="J128" s="1">
@@ -6247,19 +6252,19 @@
       <c r="D129">
         <v>2016</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F129" t="s">
         <v>364</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="1">
         <v>22767</v>
       </c>
       <c r="H129" t="s">
         <v>431</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="1">
         <v>15980</v>
       </c>
       <c r="J129" s="1">
@@ -6279,19 +6284,19 @@
       <c r="D130">
         <v>2016</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F130" t="s">
         <v>365</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="1">
         <v>45146</v>
       </c>
       <c r="H130" t="s">
         <v>432</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="1">
         <v>45082</v>
       </c>
       <c r="J130" s="1">
@@ -6311,19 +6316,19 @@
       <c r="D131">
         <v>2016</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F131" t="s">
         <v>366</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="1">
         <v>17319</v>
       </c>
       <c r="H131" t="s">
         <v>433</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="1">
         <v>30376</v>
       </c>
       <c r="J131" s="1">
@@ -6343,13 +6348,13 @@
       <c r="F132" t="s">
         <v>367</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="1">
         <v>27454</v>
       </c>
       <c r="H132" t="s">
         <v>434</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="1">
         <v>18688</v>
       </c>
       <c r="J132" s="1">
@@ -6369,19 +6374,19 @@
       <c r="D133">
         <v>2016</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F133" t="s">
         <v>368</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <v>33635</v>
       </c>
       <c r="H133" t="s">
         <v>435</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="1">
         <v>20515</v>
       </c>
       <c r="J133" s="1">
@@ -6401,19 +6406,19 @@
       <c r="D134">
         <v>2016</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F134" t="s">
         <v>369</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="1">
         <v>44987</v>
       </c>
       <c r="H134" t="s">
         <v>436</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="1">
         <v>30376</v>
       </c>
       <c r="J134" s="1">
@@ -6433,22 +6438,22 @@
       <c r="D135">
         <v>2016</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F135" t="s">
         <v>362</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="1">
         <v>34425</v>
       </c>
       <c r="H135" t="s">
         <v>363</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="1">
         <v>34425</v>
       </c>
-      <c r="J135" t="s">
+      <c r="J135" s="1" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6465,19 +6470,19 @@
       <c r="D136">
         <v>2016</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F136" t="s">
         <v>364</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="1">
         <v>44990</v>
       </c>
       <c r="H136" t="s">
         <v>431</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="1">
         <v>16377</v>
       </c>
       <c r="J136" s="1">
@@ -6497,19 +6502,19 @@
       <c r="D137">
         <v>2016</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F137" t="s">
         <v>365</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="1">
         <v>46935</v>
       </c>
       <c r="H137" t="s">
         <v>432</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="1">
         <v>45021</v>
       </c>
       <c r="J137" s="1">
@@ -6529,19 +6534,19 @@
       <c r="D138">
         <v>2016</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F138" t="s">
         <v>366</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="1">
         <v>19146</v>
       </c>
       <c r="H138" t="s">
         <v>433</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="1">
         <v>23437</v>
       </c>
       <c r="J138" s="1">
@@ -6561,13 +6566,13 @@
       <c r="F139" t="s">
         <v>367</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="1">
         <v>28550</v>
       </c>
       <c r="H139" t="s">
         <v>434</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="1">
         <v>13575</v>
       </c>
       <c r="J139" s="1">
@@ -6587,19 +6592,19 @@
       <c r="D140">
         <v>2016</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F140" t="s">
         <v>368</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="1">
         <v>33270</v>
       </c>
       <c r="H140" t="s">
         <v>435</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="1">
         <v>28915</v>
       </c>
       <c r="J140" s="1">
@@ -6619,19 +6624,19 @@
       <c r="D141">
         <v>2016</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F141" t="s">
         <v>369</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="1">
         <v>42767</v>
       </c>
       <c r="H141" t="s">
         <v>436</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="1">
         <v>27820</v>
       </c>
       <c r="J141" s="1">
@@ -6651,19 +6656,19 @@
       <c r="D142">
         <v>2016</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="1" t="s">
         <v>118</v>
       </c>
       <c r="F142" t="s">
         <v>362</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="1">
         <v>28946</v>
       </c>
       <c r="H142" t="s">
         <v>363</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="1">
         <v>28946</v>
       </c>
       <c r="J142" s="1">
@@ -6683,19 +6688,19 @@
       <c r="D143">
         <v>2016</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="1" t="s">
         <v>119</v>
       </c>
       <c r="F143" t="s">
         <v>364</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="1">
         <v>31564</v>
       </c>
       <c r="H143" t="s">
         <v>431</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="1">
         <v>12663</v>
       </c>
       <c r="J143" s="1">
@@ -6715,19 +6720,19 @@
       <c r="D144">
         <v>2016</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="1" t="s">
         <v>120</v>
       </c>
       <c r="F144" t="s">
         <v>365</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="1">
         <v>15281</v>
       </c>
       <c r="H144" t="s">
         <v>432</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="1">
         <v>45143</v>
       </c>
       <c r="J144" s="1">
@@ -6747,19 +6752,19 @@
       <c r="D145">
         <v>2016</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F145" t="s">
         <v>366</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="1">
         <v>15128</v>
       </c>
       <c r="H145" t="s">
         <v>433</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="1">
         <v>45081</v>
       </c>
       <c r="J145" s="1">
@@ -6779,13 +6784,13 @@
       <c r="F146" t="s">
         <v>367</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="1">
         <v>26724</v>
       </c>
       <c r="H146" t="s">
         <v>434</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="1">
         <v>24167</v>
       </c>
       <c r="J146" s="1">
@@ -6805,19 +6810,19 @@
       <c r="D147">
         <v>2016</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="1" t="s">
         <v>122</v>
       </c>
       <c r="F147" t="s">
         <v>368</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="1">
         <v>34001</v>
       </c>
       <c r="H147" t="s">
         <v>435</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="1">
         <v>44988</v>
       </c>
       <c r="J147" s="1">
@@ -6837,19 +6842,19 @@
       <c r="D148">
         <v>2016</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="1" t="s">
         <v>123</v>
       </c>
       <c r="F148" t="s">
         <v>369</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="1">
         <v>15738</v>
       </c>
       <c r="H148" t="s">
         <v>436</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="1">
         <v>33664</v>
       </c>
       <c r="J148" s="1">
@@ -6869,19 +6874,19 @@
       <c r="D149">
         <v>2015</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="1" t="s">
         <v>124</v>
       </c>
       <c r="F149" t="s">
         <v>362</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="1">
         <v>46874</v>
       </c>
       <c r="H149" t="s">
         <v>363</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="1">
         <v>46874</v>
       </c>
       <c r="J149" s="1">
@@ -6901,19 +6906,19 @@
       <c r="D150">
         <v>2015</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="1" t="s">
         <v>125</v>
       </c>
       <c r="F150" t="s">
         <v>364</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="1">
         <v>45052</v>
       </c>
       <c r="H150" t="s">
         <v>431</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="1">
         <v>22951</v>
       </c>
       <c r="J150" s="1">
@@ -6933,19 +6938,19 @@
       <c r="D151">
         <v>2015</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="1" t="s">
         <v>126</v>
       </c>
       <c r="F151" t="s">
         <v>365</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="1">
         <v>34912</v>
       </c>
       <c r="H151" t="s">
         <v>432</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="1">
         <v>45051</v>
       </c>
       <c r="J151" s="1">
@@ -6965,22 +6970,22 @@
       <c r="D152">
         <v>2015</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="1" t="s">
         <v>127</v>
       </c>
       <c r="F152" t="s">
         <v>366</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="1">
         <v>45176</v>
       </c>
       <c r="H152" t="s">
         <v>433</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="1">
         <v>41730</v>
       </c>
-      <c r="J152" t="s">
+      <c r="J152" s="1" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6997,13 +7002,13 @@
       <c r="F153" t="s">
         <v>367</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="1">
         <v>44930</v>
       </c>
       <c r="H153" t="s">
         <v>434</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="1">
         <v>25993</v>
       </c>
       <c r="J153" s="1">
@@ -7023,19 +7028,19 @@
       <c r="D154">
         <v>2015</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="1" t="s">
         <v>128</v>
       </c>
       <c r="F154" t="s">
         <v>368</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="1">
         <v>44960</v>
       </c>
       <c r="H154" t="s">
         <v>435</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="1">
         <v>28550</v>
       </c>
       <c r="J154" s="1">
@@ -7055,19 +7060,19 @@
       <c r="D155">
         <v>2015</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="1" t="s">
         <v>129</v>
       </c>
       <c r="F155" t="s">
         <v>369</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="1">
         <v>12086</v>
       </c>
       <c r="H155" t="s">
         <v>436</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="1">
         <v>30376</v>
       </c>
       <c r="J155" s="1">
@@ -7087,19 +7092,19 @@
       <c r="D156">
         <v>2015</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="1" t="s">
         <v>130</v>
       </c>
       <c r="F156" t="s">
         <v>362</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="1">
         <v>13636</v>
       </c>
       <c r="H156" t="s">
         <v>363</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="1">
         <v>13636</v>
       </c>
       <c r="J156" s="1">
@@ -7119,19 +7124,19 @@
       <c r="D157">
         <v>2015</v>
       </c>
-      <c r="E157" t="s">
+      <c r="E157" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F157" t="s">
         <v>364</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="1">
         <v>24228</v>
       </c>
       <c r="H157" t="s">
         <v>431</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="1">
         <v>28825</v>
       </c>
       <c r="J157" s="1">
@@ -7151,19 +7156,19 @@
       <c r="D158">
         <v>2015</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="1" t="s">
         <v>132</v>
       </c>
       <c r="F158" t="s">
         <v>365</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="1">
         <v>43313</v>
       </c>
       <c r="H158" t="s">
         <v>432</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="1">
         <v>18019</v>
       </c>
       <c r="J158" s="1">
@@ -7183,19 +7188,19 @@
       <c r="D159">
         <v>2015</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="1" t="s">
         <v>133</v>
       </c>
       <c r="F159" t="s">
         <v>366</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="1">
         <v>42552</v>
       </c>
       <c r="H159" t="s">
         <v>433</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="1">
         <v>35125</v>
       </c>
       <c r="J159" s="1">
@@ -7215,13 +7220,13 @@
       <c r="F160" t="s">
         <v>367</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="1">
         <v>45172</v>
       </c>
       <c r="H160" t="s">
         <v>434</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="1">
         <v>22706</v>
       </c>
       <c r="J160" s="1">
@@ -7241,19 +7246,19 @@
       <c r="D161">
         <v>2015</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="1" t="s">
         <v>134</v>
       </c>
       <c r="F161" t="s">
         <v>368</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="1">
         <v>32174</v>
       </c>
       <c r="H161" t="s">
         <v>435</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="1">
         <v>34394</v>
       </c>
       <c r="J161" s="1">
@@ -7273,19 +7278,19 @@
       <c r="D162">
         <v>2015</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="1" t="s">
         <v>135</v>
       </c>
       <c r="F162" t="s">
         <v>369</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="1">
         <v>13912</v>
       </c>
       <c r="H162" t="s">
         <v>436</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="1">
         <v>29646</v>
       </c>
       <c r="J162" s="1">
@@ -7305,19 +7310,19 @@
       <c r="D163">
         <v>2015</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F163" t="s">
         <v>362</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="1">
         <v>43221</v>
       </c>
       <c r="H163" t="s">
         <v>363</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="1">
         <v>43221</v>
       </c>
       <c r="J163" s="1">
@@ -7337,19 +7342,19 @@
       <c r="D164">
         <v>2015</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="1" t="s">
         <v>137</v>
       </c>
       <c r="F164" t="s">
         <v>364</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="1">
         <v>31564</v>
       </c>
       <c r="H164" t="s">
         <v>431</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="1">
         <v>45026</v>
       </c>
       <c r="J164" s="1">
@@ -7369,19 +7374,19 @@
       <c r="D165">
         <v>2015</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F165" t="s">
         <v>365</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="1">
         <v>12328</v>
       </c>
       <c r="H165" t="s">
         <v>432</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="1">
         <v>18749</v>
       </c>
       <c r="J165" s="1">
@@ -7401,19 +7406,19 @@
       <c r="D166">
         <v>2015</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="1" t="s">
         <v>139</v>
       </c>
       <c r="F166" t="s">
         <v>366</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="1">
         <v>7</v>
       </c>
       <c r="H166" t="s">
         <v>433</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="1">
         <v>13241</v>
       </c>
       <c r="J166" s="1">
@@ -7433,13 +7438,13 @@
       <c r="F167" t="s">
         <v>367</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="1">
         <v>45234</v>
       </c>
       <c r="H167" t="s">
         <v>434</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="1">
         <v>29646</v>
       </c>
       <c r="J167" s="1">
@@ -7459,19 +7464,19 @@
       <c r="D168">
         <v>2015</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="1" t="s">
         <v>140</v>
       </c>
       <c r="F168" t="s">
         <v>368</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="1">
         <v>42795</v>
       </c>
       <c r="H168" t="s">
         <v>435</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="1">
         <v>45080</v>
       </c>
       <c r="J168" s="1">
@@ -7491,19 +7496,19 @@
       <c r="D169">
         <v>2015</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E169" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F169" t="s">
         <v>369</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="1">
         <v>47150</v>
       </c>
       <c r="H169" t="s">
         <v>436</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="1">
         <v>31472</v>
       </c>
       <c r="J169" s="1">
@@ -7523,19 +7528,19 @@
       <c r="D170">
         <v>2014</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E170" s="1" t="s">
         <v>142</v>
       </c>
       <c r="F170" t="s">
         <v>362</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="1">
         <v>42887</v>
       </c>
       <c r="H170" t="s">
         <v>363</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="1">
         <v>42887</v>
       </c>
       <c r="J170" s="1">
@@ -7555,19 +7560,19 @@
       <c r="D171">
         <v>2014</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E171" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F171" t="s">
         <v>364</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="1">
         <v>44964</v>
       </c>
       <c r="H171" t="s">
         <v>431</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="1">
         <v>45029</v>
       </c>
       <c r="J171" s="1">
@@ -7587,19 +7592,19 @@
       <c r="D172">
         <v>2014</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F172" t="s">
         <v>365</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="1">
         <v>44936</v>
       </c>
       <c r="H172" t="s">
         <v>432</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="1">
         <v>45052</v>
       </c>
       <c r="J172" s="1">
@@ -7619,19 +7624,19 @@
       <c r="D173">
         <v>2014</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F173" t="s">
         <v>366</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="1">
         <v>45177</v>
       </c>
       <c r="H173" t="s">
         <v>433</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="1">
         <v>27120</v>
       </c>
       <c r="J173" s="1">
@@ -7651,13 +7656,13 @@
       <c r="F174" t="s">
         <v>367</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="1">
         <v>27120</v>
       </c>
       <c r="H174" t="s">
         <v>434</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="1">
         <v>15067</v>
       </c>
       <c r="J174" s="1">
@@ -7677,19 +7682,19 @@
       <c r="D175">
         <v>2014</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="1" t="s">
         <v>146</v>
       </c>
       <c r="F175" t="s">
         <v>368</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="1">
         <v>27820</v>
       </c>
       <c r="H175" t="s">
         <v>435</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="1">
         <v>12875</v>
       </c>
       <c r="J175" s="1">
@@ -7709,19 +7714,19 @@
       <c r="D176">
         <v>2014</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="1" t="s">
         <v>147</v>
       </c>
       <c r="F176" t="s">
         <v>369</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="1">
         <v>27426</v>
       </c>
       <c r="H176" t="s">
         <v>436</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="1">
         <v>22737</v>
       </c>
       <c r="J176" s="1">
@@ -7741,19 +7746,19 @@
       <c r="D177">
         <v>2014</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F177" t="s">
         <v>362</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="1">
         <v>46174</v>
       </c>
       <c r="H177" t="s">
         <v>363</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="1">
         <v>46174</v>
       </c>
       <c r="J177" s="1">
@@ -7773,19 +7778,19 @@
       <c r="D178">
         <v>2014</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="1" t="s">
         <v>149</v>
       </c>
       <c r="F178" t="s">
         <v>364</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="1">
         <v>21671</v>
       </c>
       <c r="H178" t="s">
         <v>431</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I178" s="1" t="s">
         <v>389</v>
       </c>
       <c r="J178" s="1">
@@ -7805,19 +7810,19 @@
       <c r="D179">
         <v>2014</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="1" t="s">
         <v>150</v>
       </c>
       <c r="F179" t="s">
         <v>365</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="1">
         <v>27607</v>
       </c>
       <c r="H179" t="s">
         <v>432</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="1">
         <v>15128</v>
       </c>
       <c r="J179" s="1">
@@ -7837,19 +7842,19 @@
       <c r="D180">
         <v>2014</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="1" t="s">
         <v>151</v>
       </c>
       <c r="F180" t="s">
         <v>366</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="1">
         <v>44774</v>
       </c>
       <c r="H180" t="s">
         <v>433</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="1">
         <v>23102</v>
       </c>
       <c r="J180" s="1">
@@ -7869,13 +7874,13 @@
       <c r="F181" t="s">
         <v>367</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="1">
         <v>23102</v>
       </c>
       <c r="H181" t="s">
         <v>434</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="1">
         <v>13241</v>
       </c>
       <c r="J181" s="1">
@@ -7895,19 +7900,19 @@
       <c r="D182">
         <v>2014</v>
       </c>
-      <c r="E182" t="s">
+      <c r="E182" s="1" t="s">
         <v>152</v>
       </c>
       <c r="F182" t="s">
         <v>368</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="1">
         <v>24167</v>
       </c>
       <c r="H182" t="s">
         <v>435</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="1">
         <v>18719</v>
       </c>
       <c r="J182" s="1">
@@ -7927,19 +7932,19 @@
       <c r="D183">
         <v>2014</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F183" t="s">
         <v>369</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="1">
         <v>24504</v>
       </c>
       <c r="H183" t="s">
         <v>436</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="1">
         <v>20546</v>
       </c>
       <c r="J183" s="1">
@@ -7959,19 +7964,19 @@
       <c r="D184">
         <v>2014</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F184" t="s">
         <v>362</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="1">
         <v>45083</v>
       </c>
       <c r="H184" t="s">
         <v>363</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="1">
         <v>45083</v>
       </c>
       <c r="J184" s="1">
@@ -7991,19 +7996,19 @@
       <c r="D185">
         <v>2014</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="1" t="s">
         <v>155</v>
       </c>
       <c r="F185" t="s">
         <v>364</v>
       </c>
-      <c r="G185">
+      <c r="G185" s="1">
         <v>36404</v>
       </c>
       <c r="H185" t="s">
         <v>431</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="1">
         <v>43070</v>
       </c>
       <c r="J185" s="1">
@@ -8023,22 +8028,22 @@
       <c r="D186">
         <v>2014</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="1" t="s">
         <v>156</v>
       </c>
       <c r="F186" t="s">
         <v>365</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="1">
         <v>20059</v>
       </c>
       <c r="H186" t="s">
         <v>432</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="1">
         <v>22433</v>
       </c>
-      <c r="J186" t="s">
+      <c r="J186" s="1" t="s">
         <v>416</v>
       </c>
     </row>
@@ -8055,19 +8060,19 @@
       <c r="D187">
         <v>2014</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="1" t="s">
         <v>157</v>
       </c>
       <c r="F187" t="s">
         <v>366</v>
       </c>
-      <c r="G187">
+      <c r="G187" s="1">
         <v>34151</v>
       </c>
       <c r="H187" t="s">
         <v>433</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="1">
         <v>31503</v>
       </c>
       <c r="J187" s="1">
@@ -8087,13 +8092,13 @@
       <c r="F188" t="s">
         <v>367</v>
       </c>
-      <c r="G188">
+      <c r="G188" s="1">
         <v>30407</v>
       </c>
       <c r="H188" t="s">
         <v>434</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="1">
         <v>17624</v>
       </c>
       <c r="J188" s="1">
@@ -8113,19 +8118,19 @@
       <c r="D189">
         <v>2014</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="1" t="s">
         <v>158</v>
       </c>
       <c r="F189" t="s">
         <v>368</v>
       </c>
-      <c r="G189">
+      <c r="G189" s="1">
         <v>31837</v>
       </c>
       <c r="H189" t="s">
         <v>435</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="1">
         <v>43191</v>
       </c>
       <c r="J189" s="1">
@@ -8145,19 +8150,19 @@
       <c r="D190">
         <v>2014</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="1" t="s">
         <v>159</v>
       </c>
       <c r="F190" t="s">
         <v>369</v>
       </c>
-      <c r="G190">
+      <c r="G190" s="1">
         <v>30348</v>
       </c>
       <c r="H190" t="s">
         <v>436</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="1">
         <v>45111</v>
       </c>
       <c r="J190" s="1">
@@ -8177,19 +8182,19 @@
       <c r="D191">
         <v>2013</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="1" t="s">
         <v>160</v>
       </c>
       <c r="F191" t="s">
         <v>362</v>
       </c>
-      <c r="G191">
+      <c r="G191" s="1">
         <v>13697</v>
       </c>
       <c r="H191" t="s">
         <v>363</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="1">
         <v>13697</v>
       </c>
       <c r="J191" s="1">
@@ -8209,19 +8214,19 @@
       <c r="D192">
         <v>2013</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="1" t="s">
         <v>161</v>
       </c>
       <c r="F192" t="s">
         <v>364</v>
       </c>
-      <c r="G192">
+      <c r="G192" s="1">
         <v>15189</v>
       </c>
       <c r="H192" t="s">
         <v>431</v>
       </c>
-      <c r="I192" t="s">
+      <c r="I192" s="1" t="s">
         <v>390</v>
       </c>
       <c r="J192" s="1">
@@ -8241,19 +8246,19 @@
       <c r="D193">
         <v>2013</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="1" t="s">
         <v>162</v>
       </c>
       <c r="F193" t="s">
         <v>365</v>
       </c>
-      <c r="G193">
+      <c r="G193" s="1">
         <v>14215</v>
       </c>
       <c r="H193" t="s">
         <v>432</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="1">
         <v>15523</v>
       </c>
       <c r="J193" s="1">
@@ -8273,19 +8278,19 @@
       <c r="D194">
         <v>2013</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="1" t="s">
         <v>163</v>
       </c>
       <c r="F194" t="s">
         <v>366</v>
       </c>
-      <c r="G194">
+      <c r="G194" s="1">
         <v>25082</v>
       </c>
       <c r="H194" t="s">
         <v>433</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="1">
         <v>31898</v>
       </c>
       <c r="J194" s="1">
@@ -8305,13 +8310,13 @@
       <c r="F195" t="s">
         <v>367</v>
       </c>
-      <c r="G195">
+      <c r="G195" s="1">
         <v>25324</v>
       </c>
       <c r="H195" t="s">
         <v>434</v>
       </c>
-      <c r="I195">
+      <c r="I195" s="1">
         <v>23498</v>
       </c>
       <c r="J195" s="1">
@@ -8331,19 +8336,19 @@
       <c r="D196">
         <v>2013</v>
       </c>
-      <c r="E196" t="s">
+      <c r="E196" s="1" t="s">
         <v>164</v>
       </c>
       <c r="F196" t="s">
         <v>368</v>
       </c>
-      <c r="G196">
+      <c r="G196" s="1">
         <v>11780</v>
       </c>
       <c r="H196" t="s">
         <v>435</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="1">
         <v>12540</v>
       </c>
       <c r="J196" s="1">
@@ -8363,19 +8368,19 @@
       <c r="D197">
         <v>2013</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="1" t="s">
         <v>165</v>
       </c>
       <c r="F197" t="s">
         <v>369</v>
       </c>
-      <c r="G197">
+      <c r="G197" s="1">
         <v>46082</v>
       </c>
       <c r="H197" t="s">
         <v>436</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="1">
         <v>12905</v>
       </c>
       <c r="J197" s="1">
@@ -8395,19 +8400,19 @@
       <c r="D198">
         <v>2013</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="1" t="s">
         <v>166</v>
       </c>
       <c r="F198" t="s">
         <v>362</v>
       </c>
-      <c r="G198">
+      <c r="G198" s="1">
         <v>23559</v>
       </c>
       <c r="H198" t="s">
         <v>363</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="1">
         <v>23559</v>
       </c>
       <c r="J198" s="1">
@@ -8427,19 +8432,19 @@
       <c r="D199">
         <v>2013</v>
       </c>
-      <c r="E199" t="s">
+      <c r="E199" s="1" t="s">
         <v>167</v>
       </c>
       <c r="F199" t="s">
         <v>364</v>
       </c>
-      <c r="G199">
+      <c r="G199" s="1">
         <v>30834</v>
       </c>
       <c r="H199" t="s">
         <v>431</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="1">
         <v>45063</v>
       </c>
       <c r="J199" s="1">
@@ -8459,19 +8464,19 @@
       <c r="D200">
         <v>2013</v>
       </c>
-      <c r="E200" t="s">
+      <c r="E200" s="1" t="s">
         <v>168</v>
       </c>
       <c r="F200" t="s">
         <v>365</v>
       </c>
-      <c r="G200">
+      <c r="G200" s="1">
         <v>20394</v>
       </c>
       <c r="H200" t="s">
         <v>432</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="1">
         <v>20271</v>
       </c>
       <c r="J200" s="1">
@@ -8491,19 +8496,19 @@
       <c r="D201">
         <v>2013</v>
       </c>
-      <c r="E201" t="s">
+      <c r="E201" s="1" t="s">
         <v>169</v>
       </c>
       <c r="F201" t="s">
         <v>366</v>
       </c>
-      <c r="G201">
+      <c r="G201" s="1">
         <v>45087</v>
       </c>
       <c r="H201" t="s">
         <v>433</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="1">
         <v>27881</v>
       </c>
       <c r="J201" s="1">
@@ -8523,13 +8528,13 @@
       <c r="F202" t="s">
         <v>367</v>
       </c>
-      <c r="G202">
+      <c r="G202" s="1">
         <v>19115</v>
       </c>
       <c r="H202" t="s">
         <v>434</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="1">
         <v>27150</v>
       </c>
       <c r="J202" s="1">
@@ -8549,19 +8554,19 @@
       <c r="D203">
         <v>2013</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="1" t="s">
         <v>170</v>
       </c>
       <c r="F203" t="s">
         <v>368</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="1">
         <v>11414</v>
       </c>
       <c r="H203" t="s">
         <v>435</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="1">
         <v>24593</v>
       </c>
       <c r="J203" s="1">
@@ -8581,19 +8586,19 @@
       <c r="D204">
         <v>2013</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="1" t="s">
         <v>171</v>
       </c>
       <c r="F204" t="s">
         <v>369</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="1">
         <v>45172</v>
       </c>
       <c r="H204" t="s">
         <v>436</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="1">
         <v>19480</v>
       </c>
       <c r="J204" s="1">
@@ -8613,19 +8618,19 @@
       <c r="D205">
         <v>2013</v>
       </c>
-      <c r="E205" t="s">
+      <c r="E205" s="1" t="s">
         <v>172</v>
       </c>
       <c r="F205" t="s">
         <v>362</v>
       </c>
-      <c r="G205">
+      <c r="G205" s="1">
         <v>45145</v>
       </c>
       <c r="H205" t="s">
         <v>363</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="1">
         <v>45145</v>
       </c>
       <c r="J205" s="1">
@@ -8645,19 +8650,19 @@
       <c r="D206">
         <v>2013</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="1" t="s">
         <v>173</v>
       </c>
       <c r="F206" t="s">
         <v>364</v>
       </c>
-      <c r="G206">
+      <c r="G206" s="1">
         <v>45118</v>
       </c>
       <c r="H206" t="s">
         <v>431</v>
       </c>
-      <c r="I206" t="s">
+      <c r="I206" s="1" t="s">
         <v>391</v>
       </c>
       <c r="J206" s="1">
@@ -8677,19 +8682,19 @@
       <c r="D207">
         <v>2013</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E207" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F207" t="s">
         <v>365</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="1" t="s">
         <v>372</v>
       </c>
       <c r="H207" t="s">
         <v>432</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="1">
         <v>46569</v>
       </c>
       <c r="J207" s="1">
@@ -8709,22 +8714,22 @@
       <c r="D208">
         <v>2013</v>
       </c>
-      <c r="E208" t="s">
+      <c r="E208" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F208" t="s">
         <v>366</v>
       </c>
-      <c r="G208">
+      <c r="G208" s="1">
         <v>44440</v>
       </c>
       <c r="H208" t="s">
         <v>433</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="1">
         <v>6</v>
       </c>
-      <c r="J208" t="s">
+      <c r="J208" s="1" t="s">
         <v>417</v>
       </c>
     </row>
@@ -8741,13 +8746,13 @@
       <c r="F209" t="s">
         <v>367</v>
       </c>
-      <c r="G209">
+      <c r="G209" s="1">
         <v>30437</v>
       </c>
       <c r="H209" t="s">
         <v>434</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="1">
         <v>19480</v>
       </c>
       <c r="J209" s="1">
@@ -8767,19 +8772,19 @@
       <c r="D210">
         <v>2013</v>
       </c>
-      <c r="E210" t="s">
+      <c r="E210" s="1" t="s">
         <v>176</v>
       </c>
       <c r="F210" t="s">
         <v>368</v>
       </c>
-      <c r="G210">
+      <c r="G210" s="1">
         <v>12145</v>
       </c>
       <c r="H210" t="s">
         <v>435</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="1">
         <v>36251</v>
       </c>
       <c r="J210" s="1">
@@ -8799,19 +8804,19 @@
       <c r="D211">
         <v>2013</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="1" t="s">
         <v>177</v>
       </c>
       <c r="F211" t="s">
         <v>369</v>
       </c>
-      <c r="G211">
+      <c r="G211" s="1">
         <v>15036</v>
       </c>
       <c r="H211" t="s">
         <v>436</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="1">
         <v>45265</v>
       </c>
       <c r="J211" s="1">
@@ -8831,19 +8836,19 @@
       <c r="D212">
         <v>2012</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="1" t="s">
         <v>178</v>
       </c>
       <c r="F212" t="s">
         <v>362</v>
       </c>
-      <c r="G212">
+      <c r="G212" s="1">
         <v>45115</v>
       </c>
       <c r="H212" t="s">
         <v>363</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="1">
         <v>45115</v>
       </c>
       <c r="J212" s="1">
@@ -8863,19 +8868,19 @@
       <c r="D213">
         <v>2012</v>
       </c>
-      <c r="E213" t="s">
+      <c r="E213" s="1" t="s">
         <v>179</v>
       </c>
       <c r="F213" t="s">
         <v>364</v>
       </c>
-      <c r="G213">
+      <c r="G213" s="1">
         <v>33848</v>
       </c>
       <c r="H213" t="s">
         <v>431</v>
       </c>
-      <c r="I213" t="s">
+      <c r="I213" s="1" t="s">
         <v>392</v>
       </c>
       <c r="J213" s="1">
@@ -8895,19 +8900,19 @@
       <c r="D214">
         <v>2012</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="1" t="s">
         <v>180</v>
       </c>
       <c r="F214" t="s">
         <v>365</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="1" t="s">
         <v>373</v>
       </c>
       <c r="H214" t="s">
         <v>432</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="1">
         <v>46235</v>
       </c>
       <c r="J214" s="1">
@@ -8927,19 +8932,19 @@
       <c r="D215">
         <v>2012</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E215" s="1" t="s">
         <v>181</v>
       </c>
       <c r="F215" t="s">
         <v>366</v>
       </c>
-      <c r="G215">
+      <c r="G215" s="1">
         <v>15615</v>
       </c>
       <c r="H215" t="s">
         <v>433</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="1">
         <v>21702</v>
       </c>
       <c r="J215" s="1">
@@ -8959,16 +8964,16 @@
       <c r="F216" t="s">
         <v>367</v>
       </c>
-      <c r="G216">
+      <c r="G216" s="1">
         <v>15493</v>
       </c>
       <c r="H216" t="s">
         <v>434</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="1">
         <v>45078</v>
       </c>
-      <c r="J216" t="s">
+      <c r="J216" s="1" t="s">
         <v>418</v>
       </c>
     </row>
@@ -8985,19 +8990,19 @@
       <c r="D217">
         <v>2012</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="1" t="s">
         <v>182</v>
       </c>
       <c r="F217" t="s">
         <v>368</v>
       </c>
-      <c r="G217">
+      <c r="G217" s="1">
         <v>27120</v>
       </c>
       <c r="H217" t="s">
         <v>435</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="1">
         <v>34820</v>
       </c>
       <c r="J217" s="1">
@@ -9017,19 +9022,19 @@
       <c r="D218">
         <v>2012</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="1" t="s">
         <v>183</v>
       </c>
       <c r="F218" t="s">
         <v>369</v>
       </c>
-      <c r="G218">
+      <c r="G218" s="1">
         <v>12114</v>
       </c>
       <c r="H218" t="s">
         <v>436</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="1">
         <v>44713</v>
       </c>
       <c r="J218" s="1">
@@ -9049,19 +9054,19 @@
       <c r="D219">
         <v>2012</v>
       </c>
-      <c r="E219" t="s">
+      <c r="E219" s="1" t="s">
         <v>184</v>
       </c>
       <c r="F219" t="s">
         <v>362</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="1">
         <v>45139</v>
       </c>
       <c r="H219" t="s">
         <v>363</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="1">
         <v>45139</v>
       </c>
       <c r="J219" s="1">
@@ -9081,19 +9086,19 @@
       <c r="D220">
         <v>2012</v>
       </c>
-      <c r="E220" t="s">
+      <c r="E220" s="1" t="s">
         <v>185</v>
       </c>
       <c r="F220" t="s">
         <v>364</v>
       </c>
-      <c r="G220">
+      <c r="G220" s="1">
         <v>25416</v>
       </c>
       <c r="H220" t="s">
         <v>431</v>
       </c>
-      <c r="I220" t="s">
+      <c r="I220" s="1" t="s">
         <v>393</v>
       </c>
       <c r="J220" s="1">
@@ -9113,19 +9118,19 @@
       <c r="D221">
         <v>2012</v>
       </c>
-      <c r="E221" t="s">
+      <c r="E221" s="1" t="s">
         <v>186</v>
       </c>
       <c r="F221" t="s">
         <v>365</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="1" t="s">
         <v>374</v>
       </c>
       <c r="H221" t="s">
         <v>432</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="1">
         <v>42583</v>
       </c>
       <c r="J221" s="1">
@@ -9145,19 +9150,19 @@
       <c r="D222">
         <v>2012</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <v>3842</v>
       </c>
       <c r="F222" t="s">
         <v>366</v>
       </c>
-      <c r="G222">
+      <c r="G222" s="1">
         <v>24016</v>
       </c>
       <c r="H222" t="s">
         <v>433</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="1">
         <v>14032</v>
       </c>
       <c r="J222" s="1">
@@ -9177,13 +9182,13 @@
       <c r="F223" t="s">
         <v>367</v>
       </c>
-      <c r="G223">
+      <c r="G223" s="1">
         <v>42522</v>
       </c>
       <c r="H223" t="s">
         <v>434</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="1">
         <v>44713</v>
       </c>
       <c r="J223" s="1">
@@ -9203,19 +9208,19 @@
       <c r="D224">
         <v>2012</v>
       </c>
-      <c r="E224" t="s">
+      <c r="E224" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F224" t="s">
         <v>368</v>
       </c>
-      <c r="G224">
+      <c r="G224" s="1">
         <v>23102</v>
       </c>
       <c r="H224" t="s">
         <v>435</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="1">
         <v>44991</v>
       </c>
       <c r="J224" s="1">
@@ -9235,19 +9240,19 @@
       <c r="D225">
         <v>2012</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="1" t="s">
         <v>188</v>
       </c>
       <c r="F225" t="s">
         <v>369</v>
       </c>
-      <c r="G225">
+      <c r="G225" s="1">
         <v>45019</v>
       </c>
       <c r="H225" t="s">
         <v>436</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="1">
         <v>42156</v>
       </c>
       <c r="J225" s="1">
@@ -9267,19 +9272,19 @@
       <c r="D226">
         <v>2012</v>
       </c>
-      <c r="E226" t="s">
+      <c r="E226" s="1" t="s">
         <v>189</v>
       </c>
       <c r="F226" t="s">
         <v>362</v>
       </c>
-      <c r="G226">
+      <c r="G226" s="1">
         <v>32690</v>
       </c>
       <c r="H226" t="s">
         <v>363</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="1">
         <v>32690</v>
       </c>
       <c r="J226" s="1">
@@ -9299,19 +9304,19 @@
       <c r="D227">
         <v>2012</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="1" t="s">
         <v>190</v>
       </c>
       <c r="F227" t="s">
         <v>364</v>
       </c>
-      <c r="G227">
+      <c r="G227" s="1">
         <v>13850</v>
       </c>
       <c r="H227" t="s">
         <v>431</v>
       </c>
-      <c r="I227" t="s">
+      <c r="I227" s="1" t="s">
         <v>394</v>
       </c>
       <c r="J227" s="1">
@@ -9331,19 +9336,19 @@
       <c r="D228">
         <v>2012</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="1" t="s">
         <v>191</v>
       </c>
       <c r="F228" t="s">
         <v>365</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="1" t="s">
         <v>375</v>
       </c>
       <c r="H228" t="s">
         <v>432</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="1">
         <v>13728</v>
       </c>
       <c r="J228" s="1">
@@ -9363,19 +9368,19 @@
       <c r="D229">
         <v>2012</v>
       </c>
-      <c r="E229" t="s">
+      <c r="E229" s="1" t="s">
         <v>192</v>
       </c>
       <c r="F229" t="s">
         <v>366</v>
       </c>
-      <c r="G229">
+      <c r="G229" s="1">
         <v>41548</v>
       </c>
       <c r="H229" t="s">
         <v>433</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="1">
         <v>30468</v>
       </c>
       <c r="J229" s="1">
@@ -9395,13 +9400,13 @@
       <c r="F230" t="s">
         <v>367</v>
       </c>
-      <c r="G230">
+      <c r="G230" s="1">
         <v>23529</v>
       </c>
       <c r="H230" t="s">
         <v>434</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="1">
         <v>45078</v>
       </c>
       <c r="J230" s="1">
@@ -9421,19 +9426,19 @@
       <c r="D231">
         <v>2012</v>
       </c>
-      <c r="E231" t="s">
+      <c r="E231" s="1" t="s">
         <v>193</v>
       </c>
       <c r="F231" t="s">
         <v>368</v>
       </c>
-      <c r="G231">
+      <c r="G231" s="1">
         <v>31503</v>
       </c>
       <c r="H231" t="s">
         <v>435</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="1">
         <v>20941</v>
       </c>
       <c r="J231" s="1">
@@ -9453,19 +9458,19 @@
       <c r="D232">
         <v>2012</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E232" s="1" t="s">
         <v>194</v>
       </c>
       <c r="F232" t="s">
         <v>369</v>
       </c>
-      <c r="G232">
+      <c r="G232" s="1">
         <v>23071</v>
       </c>
       <c r="H232" t="s">
         <v>436</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="1">
         <v>11475</v>
       </c>
       <c r="J232" s="1">
@@ -9485,19 +9490,19 @@
       <c r="D233">
         <v>2011</v>
       </c>
-      <c r="E233" t="s">
+      <c r="E233" s="1" t="s">
         <v>195</v>
       </c>
       <c r="F233" t="s">
         <v>362</v>
       </c>
-      <c r="G233">
+      <c r="G233" s="1">
         <v>34912</v>
       </c>
       <c r="H233" t="s">
         <v>363</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="1">
         <v>34912</v>
       </c>
       <c r="J233" s="1">
@@ -9517,19 +9522,19 @@
       <c r="D234">
         <v>2011</v>
       </c>
-      <c r="E234" t="s">
+      <c r="E234" s="1" t="s">
         <v>196</v>
       </c>
       <c r="F234" t="s">
         <v>364</v>
       </c>
-      <c r="G234">
+      <c r="G234" s="1">
         <v>24746</v>
       </c>
       <c r="H234" t="s">
         <v>431</v>
       </c>
-      <c r="I234" t="s">
+      <c r="I234" s="1" t="s">
         <v>395</v>
       </c>
       <c r="J234" s="1">
@@ -9549,19 +9554,19 @@
       <c r="D235">
         <v>2011</v>
       </c>
-      <c r="E235" t="s">
+      <c r="E235" s="1" t="s">
         <v>197</v>
       </c>
       <c r="F235" t="s">
         <v>365</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="1" t="s">
         <v>376</v>
       </c>
       <c r="H235" t="s">
         <v>432</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="1">
         <v>16681</v>
       </c>
       <c r="J235" s="1">
@@ -9581,19 +9586,19 @@
       <c r="D236">
         <v>2011</v>
       </c>
-      <c r="E236" t="s">
+      <c r="E236" s="1" t="s">
         <v>198</v>
       </c>
       <c r="F236" t="s">
         <v>366</v>
       </c>
-      <c r="G236">
+      <c r="G236" s="1">
         <v>21125</v>
       </c>
       <c r="H236" t="s">
         <v>433</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="1">
         <v>11871</v>
       </c>
       <c r="J236" s="1">
@@ -9613,13 +9618,13 @@
       <c r="F237" t="s">
         <v>367</v>
       </c>
-      <c r="G237">
+      <c r="G237" s="1">
         <v>45084</v>
       </c>
       <c r="H237" t="s">
         <v>434</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="1">
         <v>45053</v>
       </c>
       <c r="J237" s="1">
@@ -9639,19 +9644,19 @@
       <c r="D238">
         <v>2011</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="1" t="s">
         <v>199</v>
       </c>
       <c r="F238" t="s">
         <v>368</v>
       </c>
-      <c r="G238">
+      <c r="G238" s="1">
         <v>43586</v>
       </c>
       <c r="H238" t="s">
         <v>435</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="1">
         <v>23529</v>
       </c>
       <c r="J238" s="1">
@@ -9671,19 +9676,19 @@
       <c r="D239">
         <v>2011</v>
       </c>
-      <c r="E239" t="s">
+      <c r="E239" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F239" t="s">
         <v>369</v>
       </c>
-      <c r="G239">
+      <c r="G239" s="1">
         <v>16497</v>
       </c>
       <c r="H239" t="s">
         <v>436</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="1">
         <v>19876</v>
       </c>
       <c r="J239" s="1">
@@ -9703,19 +9708,19 @@
       <c r="D240">
         <v>2011</v>
       </c>
-      <c r="E240" t="s">
+      <c r="E240" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F240" t="s">
         <v>362</v>
       </c>
-      <c r="G240">
+      <c r="G240" s="1">
         <v>13759</v>
       </c>
       <c r="H240" t="s">
         <v>363</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="1">
         <v>13759</v>
       </c>
       <c r="J240" s="1">
@@ -9735,19 +9740,19 @@
       <c r="D241">
         <v>2011</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="1" t="s">
         <v>202</v>
       </c>
       <c r="F241" t="s">
         <v>364</v>
       </c>
-      <c r="G241">
+      <c r="G241" s="1">
         <v>27273</v>
       </c>
       <c r="H241" t="s">
         <v>431</v>
       </c>
-      <c r="I241" t="s">
+      <c r="I241" s="1" t="s">
         <v>396</v>
       </c>
       <c r="J241" s="1">
@@ -9767,19 +9772,19 @@
       <c r="D242">
         <v>2011</v>
       </c>
-      <c r="E242" t="s">
+      <c r="E242" s="1" t="s">
         <v>203</v>
       </c>
       <c r="F242" t="s">
         <v>365</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="1" t="s">
         <v>377</v>
       </c>
       <c r="H242" t="s">
         <v>432</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="1">
         <v>26543</v>
       </c>
       <c r="J242" s="1">
@@ -9799,22 +9804,22 @@
       <c r="D243">
         <v>2011</v>
       </c>
-      <c r="E243" t="s">
+      <c r="E243" s="1" t="s">
         <v>204</v>
       </c>
       <c r="F243" t="s">
         <v>366</v>
       </c>
-      <c r="G243">
+      <c r="G243" s="1">
         <v>45242</v>
       </c>
       <c r="H243" t="s">
         <v>433</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="1">
         <v>16254</v>
       </c>
-      <c r="J243" t="s">
+      <c r="J243" s="1" t="s">
         <v>419</v>
       </c>
     </row>
@@ -9831,13 +9836,13 @@
       <c r="F244" t="s">
         <v>367</v>
       </c>
-      <c r="G244">
+      <c r="G244" s="1">
         <v>41821</v>
       </c>
       <c r="H244" t="s">
         <v>434</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="1">
         <v>45023</v>
       </c>
       <c r="J244" s="1">
@@ -9857,22 +9862,22 @@
       <c r="D245">
         <v>2011</v>
       </c>
-      <c r="E245" t="s">
+      <c r="E245" s="1" t="s">
         <v>205</v>
       </c>
       <c r="F245" t="s">
         <v>368</v>
       </c>
-      <c r="G245">
+      <c r="G245" s="1">
         <v>45047</v>
       </c>
       <c r="H245" t="s">
         <v>435</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="1">
         <v>42186</v>
       </c>
-      <c r="J245" t="s">
+      <c r="J245" s="1" t="s">
         <v>420</v>
       </c>
     </row>
@@ -9889,19 +9894,19 @@
       <c r="D246">
         <v>2011</v>
       </c>
-      <c r="E246" t="s">
+      <c r="E246" s="1" t="s">
         <v>206</v>
       </c>
       <c r="F246" t="s">
         <v>369</v>
       </c>
-      <c r="G246">
+      <c r="G246" s="1">
         <v>15401</v>
       </c>
       <c r="H246" t="s">
         <v>436</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="1">
         <v>19876</v>
       </c>
       <c r="J246" s="1">
@@ -9921,19 +9926,19 @@
       <c r="D247">
         <v>2011</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="1" t="s">
         <v>207</v>
       </c>
       <c r="F247" t="s">
         <v>362</v>
       </c>
-      <c r="G247">
+      <c r="G247" s="1">
         <v>17015</v>
       </c>
       <c r="H247" t="s">
         <v>363</v>
       </c>
-      <c r="I247">
+      <c r="I247" s="1">
         <v>17015</v>
       </c>
       <c r="J247" s="1">
@@ -9953,19 +9958,19 @@
       <c r="D248">
         <v>2011</v>
       </c>
-      <c r="E248" t="s">
+      <c r="E248" s="1" t="s">
         <v>208</v>
       </c>
       <c r="F248" t="s">
         <v>364</v>
       </c>
-      <c r="G248">
+      <c r="G248" s="1">
         <v>22616</v>
       </c>
       <c r="H248" t="s">
         <v>431</v>
       </c>
-      <c r="I248" t="s">
+      <c r="I248" s="1" t="s">
         <v>397</v>
       </c>
       <c r="J248" s="1">
@@ -9985,19 +9990,19 @@
       <c r="D249">
         <v>2011</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="1" t="s">
         <v>209</v>
       </c>
       <c r="F249" t="s">
         <v>365</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="1" t="s">
         <v>378</v>
       </c>
       <c r="H249" t="s">
         <v>432</v>
       </c>
-      <c r="I249">
+      <c r="I249" s="1">
         <v>41518</v>
       </c>
       <c r="J249" s="1">
@@ -10017,19 +10022,19 @@
       <c r="D250">
         <v>2011</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F250" t="s">
         <v>366</v>
       </c>
-      <c r="G250">
+      <c r="G250" s="1">
         <v>33512</v>
       </c>
       <c r="H250" t="s">
         <v>433</v>
       </c>
-      <c r="I250">
+      <c r="I250" s="1">
         <v>42917</v>
       </c>
       <c r="J250" s="1">
@@ -10049,13 +10054,13 @@
       <c r="F251" t="s">
         <v>367</v>
       </c>
-      <c r="G251">
+      <c r="G251" s="1">
         <v>7</v>
       </c>
       <c r="H251" t="s">
         <v>434</v>
       </c>
-      <c r="I251">
+      <c r="I251" s="1">
         <v>24624</v>
       </c>
       <c r="J251" s="1">
@@ -10075,19 +10080,19 @@
       <c r="D252">
         <v>2011</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F252" t="s">
         <v>368</v>
       </c>
-      <c r="G252">
+      <c r="G252" s="1">
         <v>41760</v>
       </c>
       <c r="H252" t="s">
         <v>435</v>
       </c>
-      <c r="I252">
+      <c r="I252" s="1">
         <v>45175</v>
       </c>
       <c r="J252" s="1">
@@ -10107,19 +10112,19 @@
       <c r="D253">
         <v>2011</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F253" t="s">
         <v>369</v>
       </c>
-      <c r="G253">
+      <c r="G253" s="1">
         <v>17593</v>
       </c>
       <c r="H253" t="s">
         <v>436</v>
       </c>
-      <c r="I253">
+      <c r="I253" s="1">
         <v>19511</v>
       </c>
       <c r="J253" s="1">
@@ -10139,19 +10144,19 @@
       <c r="D254">
         <v>2010</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E254" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F254" t="s">
         <v>362</v>
       </c>
-      <c r="G254">
+      <c r="G254" s="1">
         <v>23255</v>
       </c>
       <c r="H254" t="s">
         <v>363</v>
       </c>
-      <c r="I254">
+      <c r="I254" s="1">
         <v>23255</v>
       </c>
       <c r="J254" s="1">
@@ -10171,19 +10176,19 @@
       <c r="D255">
         <v>2010</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="1">
         <v>2459</v>
       </c>
       <c r="F255" t="s">
         <v>364</v>
       </c>
-      <c r="G255">
+      <c r="G255" s="1">
         <v>12024</v>
       </c>
       <c r="H255" t="s">
         <v>431</v>
       </c>
-      <c r="I255" t="s">
+      <c r="I255" s="1" t="s">
         <v>398</v>
       </c>
       <c r="J255" s="1">
@@ -10203,19 +10208,19 @@
       <c r="D256">
         <v>2010</v>
       </c>
-      <c r="E256" t="s">
+      <c r="E256" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F256" t="s">
         <v>365</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="1" t="s">
         <v>379</v>
       </c>
       <c r="H256" t="s">
         <v>432</v>
       </c>
-      <c r="I256">
+      <c r="I256" s="1">
         <v>45117</v>
       </c>
       <c r="J256" s="1">
@@ -10235,19 +10240,19 @@
       <c r="D257">
         <v>2010</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F257" t="s">
         <v>366</v>
       </c>
-      <c r="G257">
+      <c r="G257" s="1">
         <v>12024</v>
       </c>
       <c r="H257" t="s">
         <v>433</v>
       </c>
-      <c r="I257">
+      <c r="I257" s="1">
         <v>44934</v>
       </c>
       <c r="J257" s="1">
@@ -10267,13 +10272,13 @@
       <c r="F258" t="s">
         <v>367</v>
       </c>
-      <c r="G258">
+      <c r="G258" s="1">
         <v>44743</v>
       </c>
       <c r="H258" t="s">
         <v>434</v>
       </c>
-      <c r="I258">
+      <c r="I258" s="1">
         <v>45114</v>
       </c>
       <c r="J258" s="1">
@@ -10293,19 +10298,19 @@
       <c r="D259">
         <v>2010</v>
       </c>
-      <c r="E259" t="s">
+      <c r="E259" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F259" t="s">
         <v>368</v>
       </c>
-      <c r="G259">
+      <c r="G259" s="1">
         <v>24228</v>
       </c>
       <c r="H259" t="s">
         <v>435</v>
       </c>
-      <c r="I259">
+      <c r="I259" s="1">
         <v>41456</v>
       </c>
       <c r="J259" s="1">
@@ -10325,19 +10330,19 @@
       <c r="D260">
         <v>2010</v>
       </c>
-      <c r="E260" t="s">
+      <c r="E260" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F260" t="s">
         <v>369</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="1">
         <v>28915</v>
       </c>
       <c r="H260" t="s">
         <v>436</v>
       </c>
-      <c r="I260">
+      <c r="I260" s="1">
         <v>25355</v>
       </c>
       <c r="J260" s="1">
@@ -10357,19 +10362,19 @@
       <c r="D261">
         <v>2010</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E261" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F261" t="s">
         <v>362</v>
       </c>
-      <c r="G261">
+      <c r="G261" s="1">
         <v>19268</v>
       </c>
       <c r="H261" t="s">
         <v>363</v>
       </c>
-      <c r="I261">
+      <c r="I261" s="1">
         <v>19268</v>
       </c>
       <c r="J261" s="1">
@@ -10389,19 +10394,19 @@
       <c r="D262">
         <v>2010</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F262" t="s">
         <v>364</v>
       </c>
-      <c r="G262">
+      <c r="G262" s="1">
         <v>45962</v>
       </c>
       <c r="H262" t="s">
         <v>431</v>
       </c>
-      <c r="I262" t="s">
+      <c r="I262" s="1" t="s">
         <v>399</v>
       </c>
       <c r="J262" s="1">
@@ -10421,19 +10426,19 @@
       <c r="D263">
         <v>2010</v>
       </c>
-      <c r="E263" t="s">
+      <c r="E263" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F263" t="s">
         <v>365</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="1" t="s">
         <v>380</v>
       </c>
       <c r="H263" t="s">
         <v>432</v>
       </c>
-      <c r="I263">
+      <c r="I263" s="1">
         <v>31686</v>
       </c>
       <c r="J263" s="1">
@@ -10453,19 +10458,19 @@
       <c r="D264">
         <v>2010</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E264" s="1" t="s">
         <v>221</v>
       </c>
       <c r="F264" t="s">
         <v>366</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H264" t="s">
         <v>433</v>
       </c>
-      <c r="I264">
+      <c r="I264" s="1">
         <v>17015</v>
       </c>
       <c r="J264" s="1">
@@ -10485,13 +10490,13 @@
       <c r="F265" t="s">
         <v>367</v>
       </c>
-      <c r="G265">
+      <c r="G265" s="1">
         <v>42948</v>
       </c>
       <c r="H265" t="s">
         <v>434</v>
       </c>
-      <c r="I265">
+      <c r="I265" s="1">
         <v>20668</v>
       </c>
       <c r="J265" s="1">
@@ -10511,19 +10516,19 @@
       <c r="D266">
         <v>2010</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="1" t="s">
         <v>222</v>
       </c>
       <c r="F266" t="s">
         <v>368</v>
       </c>
-      <c r="G266">
+      <c r="G266" s="1">
         <v>33725</v>
       </c>
       <c r="H266" t="s">
         <v>435</v>
       </c>
-      <c r="I266">
+      <c r="I266" s="1">
         <v>34881</v>
       </c>
       <c r="J266" s="1">
@@ -10543,19 +10548,19 @@
       <c r="D267">
         <v>2010</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="1" t="s">
         <v>223</v>
       </c>
       <c r="F267" t="s">
         <v>369</v>
       </c>
-      <c r="G267">
+      <c r="G267" s="1">
         <v>24167</v>
       </c>
       <c r="H267" t="s">
         <v>436</v>
       </c>
-      <c r="I267">
+      <c r="I267" s="1">
         <v>45145</v>
       </c>
       <c r="J267" s="1">
@@ -10575,19 +10580,19 @@
       <c r="D268">
         <v>2010</v>
       </c>
-      <c r="E268" t="s">
+      <c r="E268" s="1" t="s">
         <v>224</v>
       </c>
       <c r="F268" t="s">
         <v>362</v>
       </c>
-      <c r="G268">
+      <c r="G268" s="1">
         <v>22859</v>
       </c>
       <c r="H268" t="s">
         <v>363</v>
       </c>
-      <c r="I268">
+      <c r="I268" s="1">
         <v>22859</v>
       </c>
       <c r="J268" s="1">
@@ -10607,19 +10612,19 @@
       <c r="D269">
         <v>2010</v>
       </c>
-      <c r="E269" t="s">
+      <c r="E269" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F269" t="s">
         <v>364</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="1" t="s">
         <v>381</v>
       </c>
       <c r="H269" t="s">
         <v>431</v>
       </c>
-      <c r="I269" t="s">
+      <c r="I269" s="1" t="s">
         <v>400</v>
       </c>
       <c r="J269" s="1">
@@ -10639,19 +10644,19 @@
       <c r="D270">
         <v>2010</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="1" t="s">
         <v>226</v>
       </c>
       <c r="F270" t="s">
         <v>365</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="1" t="s">
         <v>382</v>
       </c>
       <c r="H270" t="s">
         <v>432</v>
       </c>
-      <c r="I270">
+      <c r="I270" s="1">
         <v>45269</v>
       </c>
       <c r="J270" s="1">
@@ -10671,19 +10676,19 @@
       <c r="D271">
         <v>2010</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F271" t="s">
         <v>366</v>
       </c>
-      <c r="G271">
+      <c r="G271" s="1">
         <v>44996</v>
       </c>
       <c r="H271" t="s">
         <v>433</v>
       </c>
-      <c r="I271">
+      <c r="I271" s="1">
         <v>24654</v>
       </c>
       <c r="J271" s="1">
@@ -10703,13 +10708,13 @@
       <c r="F272" t="s">
         <v>367</v>
       </c>
-      <c r="G272">
+      <c r="G272" s="1">
         <v>15493</v>
       </c>
       <c r="H272" t="s">
         <v>434</v>
       </c>
-      <c r="I272">
+      <c r="I272" s="1">
         <v>27912</v>
       </c>
       <c r="J272" s="1">
@@ -10729,19 +10734,19 @@
       <c r="D273">
         <v>2010</v>
       </c>
-      <c r="E273" t="s">
+      <c r="E273" s="1" t="s">
         <v>228</v>
       </c>
       <c r="F273" t="s">
         <v>368</v>
       </c>
-      <c r="G273">
+      <c r="G273" s="1">
         <v>14366</v>
       </c>
       <c r="H273" t="s">
         <v>435</v>
       </c>
-      <c r="I273">
+      <c r="I273" s="1">
         <v>45444</v>
       </c>
       <c r="J273" s="1">
@@ -10761,19 +10766,19 @@
       <c r="D274">
         <v>2010</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="1" t="s">
         <v>229</v>
       </c>
       <c r="F274" t="s">
         <v>369</v>
       </c>
-      <c r="G274">
+      <c r="G274" s="1">
         <v>33664</v>
       </c>
       <c r="H274" t="s">
         <v>436</v>
       </c>
-      <c r="I274">
+      <c r="I274" s="1">
         <v>44348</v>
       </c>
       <c r="J274" s="1">
@@ -10793,19 +10798,19 @@
       <c r="D275">
         <v>2009</v>
       </c>
-      <c r="E275" t="s">
+      <c r="E275" s="1" t="s">
         <v>230</v>
       </c>
       <c r="F275" t="s">
         <v>362</v>
       </c>
-      <c r="G275">
+      <c r="G275" s="1">
         <v>45901</v>
       </c>
       <c r="H275" t="s">
         <v>363</v>
       </c>
-      <c r="I275">
+      <c r="I275" s="1">
         <v>45901</v>
       </c>
       <c r="J275" s="1">
@@ -10825,19 +10830,19 @@
       <c r="D276">
         <v>2009</v>
       </c>
-      <c r="E276" t="s">
+      <c r="E276" s="1" t="s">
         <v>231</v>
       </c>
       <c r="F276" t="s">
         <v>364</v>
       </c>
-      <c r="G276">
+      <c r="G276" s="1">
         <v>45090</v>
       </c>
       <c r="H276" t="s">
         <v>431</v>
       </c>
-      <c r="I276">
+      <c r="I276" s="1">
         <v>45094</v>
       </c>
       <c r="J276" s="1">
@@ -10857,19 +10862,19 @@
       <c r="D277">
         <v>2009</v>
       </c>
-      <c r="E277" t="s">
+      <c r="E277" s="1" t="s">
         <v>232</v>
       </c>
       <c r="F277" t="s">
         <v>365</v>
       </c>
-      <c r="G277">
+      <c r="G277" s="1">
         <v>45093</v>
       </c>
       <c r="H277" t="s">
         <v>432</v>
       </c>
-      <c r="I277">
+      <c r="I277" s="1">
         <v>31656</v>
       </c>
       <c r="J277" s="1">
@@ -10889,19 +10894,19 @@
       <c r="D278">
         <v>2009</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E278" s="1" t="s">
         <v>233</v>
       </c>
       <c r="F278" t="s">
         <v>366</v>
       </c>
-      <c r="G278">
+      <c r="G278" s="1">
         <v>26969</v>
       </c>
       <c r="H278" t="s">
         <v>433</v>
       </c>
-      <c r="I278">
+      <c r="I278" s="1">
         <v>34881</v>
       </c>
       <c r="J278" s="1">
@@ -10921,13 +10926,13 @@
       <c r="F279" t="s">
         <v>367</v>
       </c>
-      <c r="G279">
+      <c r="G279" s="1">
         <v>7</v>
       </c>
       <c r="H279" t="s">
         <v>434</v>
       </c>
-      <c r="I279">
+      <c r="I279" s="1">
         <v>42552</v>
       </c>
       <c r="J279" s="1">
@@ -10947,19 +10952,19 @@
       <c r="D280">
         <v>2009</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="1" t="s">
         <v>234</v>
       </c>
       <c r="F280" t="s">
         <v>368</v>
       </c>
-      <c r="G280">
+      <c r="G280" s="1">
         <v>17288</v>
       </c>
       <c r="H280" t="s">
         <v>435</v>
       </c>
-      <c r="I280">
+      <c r="I280" s="1">
         <v>22433</v>
       </c>
       <c r="J280" s="1">
@@ -10979,19 +10984,19 @@
       <c r="D281">
         <v>2009</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="1" t="s">
         <v>235</v>
       </c>
       <c r="F281" t="s">
         <v>369</v>
       </c>
-      <c r="G281">
+      <c r="G281" s="1">
         <v>25263</v>
       </c>
       <c r="H281" t="s">
         <v>436</v>
       </c>
-      <c r="I281">
+      <c r="I281" s="1">
         <v>16224</v>
       </c>
       <c r="J281" s="1">
@@ -11011,19 +11016,19 @@
       <c r="D282">
         <v>2009</v>
       </c>
-      <c r="E282" t="s">
+      <c r="E282" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F282" t="s">
         <v>362</v>
       </c>
-      <c r="G282">
+      <c r="G282" s="1">
         <v>47392</v>
       </c>
       <c r="H282" t="s">
         <v>363</v>
       </c>
-      <c r="I282">
+      <c r="I282" s="1">
         <v>47392</v>
       </c>
       <c r="J282" s="1">
@@ -11043,19 +11048,19 @@
       <c r="D283">
         <v>2009</v>
       </c>
-      <c r="E283" t="s">
+      <c r="E283" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F283" t="s">
         <v>364</v>
       </c>
-      <c r="G283">
+      <c r="G283" s="1">
         <v>27729</v>
       </c>
       <c r="H283" t="s">
         <v>431</v>
       </c>
-      <c r="I283" t="s">
+      <c r="I283" s="1" t="s">
         <v>401</v>
       </c>
       <c r="J283" s="1">
@@ -11075,19 +11080,19 @@
       <c r="D284">
         <v>2009</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="1" t="s">
         <v>238</v>
       </c>
       <c r="F284" t="s">
         <v>365</v>
       </c>
-      <c r="G284">
+      <c r="G284" s="1">
         <v>45154</v>
       </c>
       <c r="H284" t="s">
         <v>432</v>
       </c>
-      <c r="I284">
+      <c r="I284" s="1">
         <v>33512</v>
       </c>
       <c r="J284" s="1">
@@ -11107,19 +11112,19 @@
       <c r="D285">
         <v>2009</v>
       </c>
-      <c r="E285" t="s">
+      <c r="E285" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F285" t="s">
         <v>366</v>
       </c>
-      <c r="G285">
+      <c r="G285" s="1">
         <v>45090</v>
       </c>
       <c r="H285" t="s">
         <v>433</v>
       </c>
-      <c r="I285">
+      <c r="I285" s="1">
         <v>23590</v>
       </c>
       <c r="J285" s="1">
@@ -11139,13 +11144,13 @@
       <c r="F286" t="s">
         <v>367</v>
       </c>
-      <c r="G286">
+      <c r="G286" s="1">
         <v>45177</v>
       </c>
       <c r="H286" t="s">
         <v>434</v>
       </c>
-      <c r="I286">
+      <c r="I286" s="1">
         <v>44965</v>
       </c>
       <c r="J286" s="1">
@@ -11165,19 +11170,19 @@
       <c r="D287">
         <v>2009</v>
       </c>
-      <c r="E287" t="s">
+      <c r="E287" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F287" t="s">
         <v>368</v>
       </c>
-      <c r="G287">
+      <c r="G287" s="1">
         <v>23132</v>
       </c>
       <c r="H287" t="s">
         <v>435</v>
       </c>
-      <c r="I287">
+      <c r="I287" s="1">
         <v>42552</v>
       </c>
       <c r="J287" s="1">
@@ -11197,19 +11202,19 @@
       <c r="D288">
         <v>2009</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F288" t="s">
         <v>369</v>
       </c>
-      <c r="G288">
+      <c r="G288" s="1">
         <v>34029</v>
       </c>
       <c r="H288" t="s">
         <v>436</v>
       </c>
-      <c r="I288">
+      <c r="I288" s="1">
         <v>25355</v>
       </c>
       <c r="J288" s="1">
@@ -11229,19 +11234,19 @@
       <c r="D289">
         <v>2009</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F289" t="s">
         <v>362</v>
       </c>
-      <c r="G289">
+      <c r="G289" s="1">
         <v>45115</v>
       </c>
       <c r="H289" t="s">
         <v>363</v>
       </c>
-      <c r="I289">
+      <c r="I289" s="1">
         <v>45115</v>
       </c>
       <c r="J289" s="1">
@@ -11261,19 +11266,19 @@
       <c r="D290">
         <v>2009</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="1" t="s">
         <v>243</v>
       </c>
       <c r="F290" t="s">
         <v>364</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="1" t="s">
         <v>383</v>
       </c>
       <c r="H290" t="s">
         <v>431</v>
       </c>
-      <c r="I290" t="s">
+      <c r="I290" s="1" t="s">
         <v>402</v>
       </c>
       <c r="J290" s="1">
@@ -11293,22 +11298,22 @@
       <c r="D291">
         <v>2009</v>
       </c>
-      <c r="E291" t="s">
+      <c r="E291" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F291" t="s">
         <v>365</v>
       </c>
-      <c r="G291">
+      <c r="G291" s="1">
         <v>44973</v>
       </c>
       <c r="H291" t="s">
         <v>432</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="1">
         <v>21763</v>
       </c>
-      <c r="J291" t="s">
+      <c r="J291" s="1" t="s">
         <v>421</v>
       </c>
     </row>
@@ -11325,19 +11330,19 @@
       <c r="D292">
         <v>2009</v>
       </c>
-      <c r="E292" t="s">
+      <c r="E292" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F292" t="s">
         <v>366</v>
       </c>
-      <c r="G292">
+      <c r="G292" s="1">
         <v>41548</v>
       </c>
       <c r="H292" t="s">
         <v>433</v>
       </c>
-      <c r="I292">
+      <c r="I292" s="1">
         <v>41456</v>
       </c>
       <c r="J292" s="1">
@@ -11357,13 +11362,13 @@
       <c r="F293" t="s">
         <v>367</v>
       </c>
-      <c r="G293">
+      <c r="G293" s="1">
         <v>45113</v>
       </c>
       <c r="H293" t="s">
         <v>434</v>
       </c>
-      <c r="I293">
+      <c r="I293" s="1">
         <v>44932</v>
       </c>
       <c r="J293" s="1">
@@ -11383,19 +11388,19 @@
       <c r="D294">
         <v>2009</v>
       </c>
-      <c r="E294" t="s">
+      <c r="E294" s="1" t="s">
         <v>246</v>
       </c>
       <c r="F294" t="s">
         <v>368</v>
       </c>
-      <c r="G294">
+      <c r="G294" s="1">
         <v>11444</v>
       </c>
       <c r="H294" t="s">
         <v>435</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="1">
         <v>44932</v>
       </c>
       <c r="J294" s="1">
@@ -11415,19 +11420,19 @@
       <c r="D295">
         <v>2009</v>
       </c>
-      <c r="E295" t="s">
+      <c r="E295" s="1" t="s">
         <v>247</v>
       </c>
       <c r="F295" t="s">
         <v>369</v>
       </c>
-      <c r="G295">
+      <c r="G295" s="1">
         <v>15766</v>
       </c>
       <c r="H295" t="s">
         <v>436</v>
       </c>
-      <c r="I295">
+      <c r="I295" s="1">
         <v>41426</v>
       </c>
       <c r="J295" s="1">
@@ -11447,19 +11452,19 @@
       <c r="D296">
         <v>2008</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E296" s="1" t="s">
         <v>248</v>
       </c>
       <c r="F296" t="s">
         <v>362</v>
       </c>
-      <c r="G296">
+      <c r="G296" s="1">
         <v>28611</v>
       </c>
       <c r="H296" t="s">
         <v>363</v>
       </c>
-      <c r="I296">
+      <c r="I296" s="1">
         <v>28611</v>
       </c>
       <c r="J296" s="1">
@@ -11479,19 +11484,19 @@
       <c r="D297">
         <v>2008</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="1" t="s">
         <v>249</v>
       </c>
       <c r="F297" t="s">
         <v>364</v>
       </c>
-      <c r="G297">
+      <c r="G297" s="1">
         <v>23193</v>
       </c>
       <c r="H297" t="s">
         <v>431</v>
       </c>
-      <c r="I297">
+      <c r="I297" s="1">
         <v>31382</v>
       </c>
       <c r="J297" s="1">
@@ -11511,19 +11516,19 @@
       <c r="D298">
         <v>2008</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="1" t="s">
         <v>250</v>
       </c>
       <c r="F298" t="s">
         <v>365</v>
       </c>
-      <c r="G298">
+      <c r="G298" s="1">
         <v>13485</v>
       </c>
       <c r="H298" t="s">
         <v>432</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="1">
         <v>31168</v>
       </c>
       <c r="J298" s="1">
@@ -11543,19 +11548,19 @@
       <c r="D299">
         <v>2008</v>
       </c>
-      <c r="E299" t="s">
+      <c r="E299" s="1" t="s">
         <v>251</v>
       </c>
       <c r="F299" t="s">
         <v>366</v>
       </c>
-      <c r="G299">
+      <c r="G299" s="1">
         <v>15523</v>
       </c>
       <c r="H299" t="s">
         <v>433</v>
       </c>
-      <c r="I299">
+      <c r="I299" s="1">
         <v>21276</v>
       </c>
       <c r="J299" s="1">
@@ -11575,13 +11580,13 @@
       <c r="F300" t="s">
         <v>367</v>
       </c>
-      <c r="G300">
+      <c r="G300" s="1">
         <v>34394</v>
       </c>
       <c r="H300" t="s">
         <v>434</v>
       </c>
-      <c r="I300">
+      <c r="I300" s="1">
         <v>45173</v>
       </c>
       <c r="J300" s="1">
@@ -11601,19 +11606,19 @@
       <c r="D301">
         <v>2008</v>
       </c>
-      <c r="E301" t="s">
+      <c r="E301" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F301" t="s">
         <v>368</v>
       </c>
-      <c r="G301">
+      <c r="G301" s="1">
         <v>35096</v>
       </c>
       <c r="H301" t="s">
         <v>435</v>
       </c>
-      <c r="I301">
+      <c r="I301" s="1">
         <v>25993</v>
       </c>
       <c r="J301" s="1">
@@ -11633,19 +11638,19 @@
       <c r="D302">
         <v>2008</v>
       </c>
-      <c r="E302" t="s">
+      <c r="E302" s="1" t="s">
         <v>253</v>
       </c>
       <c r="F302" t="s">
         <v>369</v>
       </c>
-      <c r="G302">
+      <c r="G302" s="1">
         <v>44987</v>
       </c>
       <c r="H302" t="s">
         <v>436</v>
       </c>
-      <c r="I302">
+      <c r="I302" s="1">
         <v>45017</v>
       </c>
       <c r="J302" s="1">
@@ -11665,19 +11670,19 @@
       <c r="D303">
         <v>2008</v>
       </c>
-      <c r="E303" t="s">
+      <c r="E303" s="1" t="s">
         <v>254</v>
       </c>
       <c r="F303" t="s">
         <v>362</v>
       </c>
-      <c r="G303">
+      <c r="G303" s="1">
         <v>44932</v>
       </c>
       <c r="H303" t="s">
         <v>363</v>
       </c>
-      <c r="I303">
+      <c r="I303" s="1">
         <v>44932</v>
       </c>
       <c r="J303" s="1">
@@ -11697,22 +11702,22 @@
       <c r="D304">
         <v>2008</v>
       </c>
-      <c r="E304" t="s">
+      <c r="E304" s="1" t="s">
         <v>255</v>
       </c>
       <c r="F304" t="s">
         <v>364</v>
       </c>
-      <c r="G304">
+      <c r="G304" s="1">
         <v>45474</v>
       </c>
       <c r="H304" t="s">
         <v>431</v>
       </c>
-      <c r="I304" t="s">
+      <c r="I304" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J304" t="s">
+      <c r="J304" s="1" t="s">
         <v>422</v>
       </c>
     </row>
@@ -11729,19 +11734,19 @@
       <c r="D305">
         <v>2008</v>
       </c>
-      <c r="E305" t="s">
+      <c r="E305" s="1" t="s">
         <v>256</v>
       </c>
       <c r="F305" t="s">
         <v>365</v>
       </c>
-      <c r="G305">
+      <c r="G305" s="1">
         <v>28795</v>
       </c>
       <c r="H305" t="s">
         <v>432</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="1">
         <v>45236</v>
       </c>
       <c r="J305" s="1">
@@ -11761,19 +11766,19 @@
       <c r="D306">
         <v>2008</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="1" t="s">
         <v>257</v>
       </c>
       <c r="F306" t="s">
         <v>366</v>
       </c>
-      <c r="G306">
+      <c r="G306" s="1">
         <v>31229</v>
       </c>
       <c r="H306" t="s">
         <v>433</v>
       </c>
-      <c r="I306">
+      <c r="I306" s="1">
         <v>22372</v>
       </c>
       <c r="J306" s="1">
@@ -11793,13 +11798,13 @@
       <c r="F307" t="s">
         <v>367</v>
       </c>
-      <c r="G307">
+      <c r="G307" s="1">
         <v>35490</v>
       </c>
       <c r="H307" t="s">
         <v>434</v>
       </c>
-      <c r="I307">
+      <c r="I307" s="1">
         <v>45748</v>
       </c>
       <c r="J307" s="1">
@@ -11819,19 +11824,19 @@
       <c r="D308">
         <v>2008</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="1" t="s">
         <v>258</v>
       </c>
       <c r="F308" t="s">
         <v>368</v>
       </c>
-      <c r="G308">
+      <c r="G308" s="1">
         <v>32174</v>
       </c>
       <c r="H308" t="s">
         <v>435</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="1">
         <v>27454</v>
       </c>
       <c r="J308" s="1">
@@ -11851,19 +11856,19 @@
       <c r="D309">
         <v>2008</v>
       </c>
-      <c r="E309" t="s">
+      <c r="E309" s="1" t="s">
         <v>259</v>
       </c>
       <c r="F309" t="s">
         <v>369</v>
       </c>
-      <c r="G309">
+      <c r="G309" s="1">
         <v>47150</v>
       </c>
       <c r="H309" t="s">
         <v>436</v>
       </c>
-      <c r="I309">
+      <c r="I309" s="1">
         <v>16893</v>
       </c>
       <c r="J309" s="1">
@@ -11883,19 +11888,19 @@
       <c r="D310">
         <v>2008</v>
       </c>
-      <c r="E310" t="s">
+      <c r="E310" s="1" t="s">
         <v>260</v>
       </c>
       <c r="F310" t="s">
         <v>362</v>
       </c>
-      <c r="G310">
+      <c r="G310" s="1">
         <v>15462</v>
       </c>
       <c r="H310" t="s">
         <v>363</v>
       </c>
-      <c r="I310">
+      <c r="I310" s="1">
         <v>15462</v>
       </c>
       <c r="J310" s="1">
@@ -11915,19 +11920,19 @@
       <c r="D311">
         <v>2008</v>
       </c>
-      <c r="E311" t="s">
+      <c r="E311" s="1" t="s">
         <v>261</v>
       </c>
       <c r="F311" t="s">
         <v>364</v>
       </c>
-      <c r="G311">
+      <c r="G311" s="1">
         <v>18841</v>
       </c>
       <c r="H311" t="s">
         <v>431</v>
       </c>
-      <c r="I311">
+      <c r="I311" s="1">
         <v>43405</v>
       </c>
       <c r="J311" s="1">
@@ -11947,19 +11952,19 @@
       <c r="D312">
         <v>2008</v>
       </c>
-      <c r="E312" t="s">
+      <c r="E312" s="1" t="s">
         <v>262</v>
       </c>
       <c r="F312" t="s">
         <v>365</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="1" t="s">
         <v>384</v>
       </c>
       <c r="H312" t="s">
         <v>432</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="1">
         <v>19115</v>
       </c>
       <c r="J312" s="1">
@@ -11979,19 +11984,19 @@
       <c r="D313">
         <v>2008</v>
       </c>
-      <c r="E313" t="s">
+      <c r="E313" s="1" t="s">
         <v>263</v>
       </c>
       <c r="F313" t="s">
         <v>366</v>
       </c>
-      <c r="G313">
+      <c r="G313" s="1">
         <v>32660</v>
       </c>
       <c r="H313" t="s">
         <v>433</v>
       </c>
-      <c r="I313">
+      <c r="I313" s="1">
         <v>19450</v>
       </c>
       <c r="J313" s="1">
@@ -12011,13 +12016,13 @@
       <c r="F314" t="s">
         <v>367</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="1">
         <v>33298</v>
       </c>
       <c r="H314" t="s">
         <v>434</v>
       </c>
-      <c r="I314">
+      <c r="I314" s="1">
         <v>33664</v>
       </c>
       <c r="J314" s="1">
@@ -12037,19 +12042,19 @@
       <c r="D315">
         <v>2008</v>
       </c>
-      <c r="E315" t="s">
+      <c r="E315" s="1" t="s">
         <v>264</v>
       </c>
       <c r="F315" t="s">
         <v>368</v>
       </c>
-      <c r="G315">
+      <c r="G315" s="1">
         <v>45049</v>
       </c>
       <c r="H315" t="s">
         <v>435</v>
       </c>
-      <c r="I315">
+      <c r="I315" s="1">
         <v>24532</v>
       </c>
       <c r="J315" s="1">
@@ -12069,19 +12074,19 @@
       <c r="D316">
         <v>2008</v>
       </c>
-      <c r="E316" t="s">
+      <c r="E316" s="1" t="s">
         <v>265</v>
       </c>
       <c r="F316" t="s">
         <v>369</v>
       </c>
-      <c r="G316">
+      <c r="G316" s="1">
         <v>11355</v>
       </c>
       <c r="H316" t="s">
         <v>436</v>
       </c>
-      <c r="I316">
+      <c r="I316" s="1">
         <v>34394</v>
       </c>
       <c r="J316" s="1">
@@ -12101,19 +12106,19 @@
       <c r="D317">
         <v>2007</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="1" t="s">
         <v>266</v>
       </c>
       <c r="F317" t="s">
         <v>362</v>
       </c>
-      <c r="G317">
+      <c r="G317" s="1">
         <v>22737</v>
       </c>
       <c r="H317" t="s">
         <v>363</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="1">
         <v>22737</v>
       </c>
       <c r="J317" s="1">
@@ -12133,19 +12138,19 @@
       <c r="D318">
         <v>2007</v>
       </c>
-      <c r="E318" t="s">
+      <c r="E318" s="1" t="s">
         <v>267</v>
       </c>
       <c r="F318" t="s">
         <v>364</v>
       </c>
-      <c r="G318">
+      <c r="G318" s="1">
         <v>32629</v>
       </c>
       <c r="H318" t="s">
         <v>431</v>
       </c>
-      <c r="I318">
+      <c r="I318" s="1">
         <v>19998</v>
       </c>
       <c r="J318" s="1">
@@ -12165,19 +12170,19 @@
       <c r="D319">
         <v>2007</v>
       </c>
-      <c r="E319" t="s">
+      <c r="E319" s="1" t="s">
         <v>268</v>
       </c>
       <c r="F319" t="s">
         <v>365</v>
       </c>
-      <c r="G319">
+      <c r="G319" s="1">
         <v>11933</v>
       </c>
       <c r="H319" t="s">
         <v>432</v>
       </c>
-      <c r="I319">
+      <c r="I319" s="1">
         <v>24198</v>
       </c>
       <c r="J319" s="1">
@@ -12197,19 +12202,19 @@
       <c r="D320">
         <v>2007</v>
       </c>
-      <c r="E320" t="s">
+      <c r="E320" s="1" t="s">
         <v>269</v>
       </c>
       <c r="F320" t="s">
         <v>366</v>
       </c>
-      <c r="G320">
+      <c r="G320" s="1">
         <v>45174</v>
       </c>
       <c r="H320" t="s">
         <v>433</v>
       </c>
-      <c r="I320">
+      <c r="I320" s="1">
         <v>16497</v>
       </c>
       <c r="J320" s="1">
@@ -12229,13 +12234,13 @@
       <c r="F321" t="s">
         <v>367</v>
       </c>
-      <c r="G321">
+      <c r="G321" s="1">
         <v>42430</v>
       </c>
       <c r="H321" t="s">
         <v>434</v>
       </c>
-      <c r="I321">
+      <c r="I321" s="1">
         <v>43160</v>
       </c>
       <c r="J321" s="1">
@@ -12255,19 +12260,19 @@
       <c r="D322">
         <v>2007</v>
       </c>
-      <c r="E322" t="s">
+      <c r="E322" s="1" t="s">
         <v>270</v>
       </c>
       <c r="F322" t="s">
         <v>368</v>
       </c>
-      <c r="G322">
+      <c r="G322" s="1">
         <v>16103</v>
       </c>
       <c r="H322" t="s">
         <v>435</v>
       </c>
-      <c r="I322">
+      <c r="I322" s="1">
         <v>45172</v>
       </c>
       <c r="J322" s="1">
@@ -12287,19 +12292,19 @@
       <c r="D323">
         <v>2007</v>
       </c>
-      <c r="E323" t="s">
+      <c r="E323" s="1" t="s">
         <v>271</v>
       </c>
       <c r="F323" t="s">
         <v>369</v>
       </c>
-      <c r="G323">
+      <c r="G323" s="1">
         <v>27760</v>
       </c>
       <c r="H323" t="s">
         <v>436</v>
       </c>
-      <c r="I323">
+      <c r="I323" s="1">
         <v>46447</v>
       </c>
       <c r="J323" s="1">
@@ -12319,19 +12324,19 @@
       <c r="D324">
         <v>2007</v>
       </c>
-      <c r="E324" t="s">
+      <c r="E324" s="1" t="s">
         <v>272</v>
       </c>
       <c r="F324" t="s">
         <v>362</v>
       </c>
-      <c r="G324">
+      <c r="G324" s="1">
         <v>26755</v>
       </c>
       <c r="H324" t="s">
         <v>363</v>
       </c>
-      <c r="I324">
+      <c r="I324" s="1">
         <v>26755</v>
       </c>
       <c r="J324" s="1">
@@ -12351,19 +12356,19 @@
       <c r="D325">
         <v>2007</v>
       </c>
-      <c r="E325" t="s">
+      <c r="E325" s="1" t="s">
         <v>273</v>
       </c>
       <c r="F325" t="s">
         <v>364</v>
       </c>
-      <c r="G325">
+      <c r="G325" s="1">
         <v>13636</v>
       </c>
       <c r="H325" t="s">
         <v>431</v>
       </c>
-      <c r="I325">
+      <c r="I325" s="1">
         <v>20394</v>
       </c>
       <c r="J325" s="1">
@@ -12383,19 +12388,19 @@
       <c r="D326">
         <v>2007</v>
       </c>
-      <c r="E326" t="s">
+      <c r="E326" s="1" t="s">
         <v>274</v>
       </c>
       <c r="F326" t="s">
         <v>365</v>
       </c>
-      <c r="G326">
+      <c r="G326" s="1">
         <v>25416</v>
       </c>
       <c r="H326" t="s">
         <v>432</v>
       </c>
-      <c r="I326">
+      <c r="I326" s="1">
         <v>24929</v>
       </c>
       <c r="J326" s="1">
@@ -12415,19 +12420,19 @@
       <c r="D327">
         <v>2007</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="1" t="s">
         <v>275</v>
       </c>
       <c r="F327" t="s">
         <v>366</v>
       </c>
-      <c r="G327">
+      <c r="G327" s="1">
         <v>45022</v>
       </c>
       <c r="H327" t="s">
         <v>433</v>
       </c>
-      <c r="I327">
+      <c r="I327" s="1">
         <v>46813</v>
       </c>
       <c r="J327" s="1">
@@ -12447,13 +12452,13 @@
       <c r="F328" t="s">
         <v>367</v>
       </c>
-      <c r="G328">
+      <c r="G328" s="1">
         <v>42064</v>
       </c>
       <c r="H328" t="s">
         <v>434</v>
       </c>
-      <c r="I328">
+      <c r="I328" s="1">
         <v>41699</v>
       </c>
       <c r="J328" s="1">
@@ -12473,19 +12478,19 @@
       <c r="D329">
         <v>2007</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="1" t="s">
         <v>276</v>
       </c>
       <c r="F329" t="s">
         <v>368</v>
       </c>
-      <c r="G329">
+      <c r="G329" s="1">
         <v>14277</v>
       </c>
       <c r="H329" t="s">
         <v>435</v>
       </c>
-      <c r="I329">
+      <c r="I329" s="1">
         <v>44960</v>
       </c>
       <c r="J329" s="1">
@@ -12505,19 +12510,19 @@
       <c r="D330">
         <v>2007</v>
       </c>
-      <c r="E330" t="s">
+      <c r="E330" s="1" t="s">
         <v>277</v>
       </c>
       <c r="F330" t="s">
         <v>369</v>
       </c>
-      <c r="G330">
+      <c r="G330" s="1">
         <v>24473</v>
       </c>
       <c r="H330" t="s">
         <v>436</v>
       </c>
-      <c r="I330">
+      <c r="I330" s="1">
         <v>45019</v>
       </c>
       <c r="J330" s="1">
@@ -12537,19 +12542,19 @@
       <c r="D331">
         <v>2007</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="1" t="s">
         <v>278</v>
       </c>
       <c r="F331" t="s">
         <v>362</v>
       </c>
-      <c r="G331">
+      <c r="G331" s="1">
         <v>45050</v>
       </c>
       <c r="H331" t="s">
         <v>363</v>
       </c>
-      <c r="I331">
+      <c r="I331" s="1">
         <v>45050</v>
       </c>
       <c r="J331" s="1">
@@ -12569,19 +12574,19 @@
       <c r="D332">
         <v>2007</v>
       </c>
-      <c r="E332" t="s">
+      <c r="E332" s="1" t="s">
         <v>279</v>
       </c>
       <c r="F332" t="s">
         <v>364</v>
       </c>
-      <c r="G332">
+      <c r="G332" s="1">
         <v>45237</v>
       </c>
       <c r="H332" t="s">
         <v>431</v>
       </c>
-      <c r="I332">
+      <c r="I332" s="1">
         <v>15950</v>
       </c>
       <c r="J332" s="1">
@@ -12601,19 +12606,19 @@
       <c r="D333">
         <v>2007</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="1" t="s">
         <v>280</v>
       </c>
       <c r="F333" t="s">
         <v>365</v>
       </c>
-      <c r="G333">
+      <c r="G333" s="1">
         <v>17076</v>
       </c>
       <c r="H333" t="s">
         <v>432</v>
       </c>
-      <c r="I333">
+      <c r="I333" s="1">
         <v>23468</v>
       </c>
       <c r="J333" s="1">
@@ -12633,19 +12638,19 @@
       <c r="D334">
         <v>2007</v>
       </c>
-      <c r="E334" t="s">
+      <c r="E334" s="1" t="s">
         <v>281</v>
       </c>
       <c r="F334" t="s">
         <v>366</v>
       </c>
-      <c r="G334">
+      <c r="G334" s="1">
         <v>26420</v>
       </c>
       <c r="H334" t="s">
         <v>433</v>
       </c>
-      <c r="I334">
+      <c r="I334" s="1">
         <v>23437</v>
       </c>
       <c r="J334" s="1">
@@ -12665,13 +12670,13 @@
       <c r="F335" t="s">
         <v>367</v>
       </c>
-      <c r="G335">
+      <c r="G335" s="1">
         <v>42430</v>
       </c>
       <c r="H335" t="s">
         <v>434</v>
       </c>
-      <c r="I335">
+      <c r="I335" s="1">
         <v>44621</v>
       </c>
       <c r="J335" s="1">
@@ -12691,19 +12696,19 @@
       <c r="D336">
         <v>2007</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="1" t="s">
         <v>282</v>
       </c>
       <c r="F336" t="s">
         <v>368</v>
       </c>
-      <c r="G336">
+      <c r="G336" s="1">
         <v>17930</v>
       </c>
       <c r="H336" t="s">
         <v>435</v>
       </c>
-      <c r="I336">
+      <c r="I336" s="1">
         <v>35827</v>
       </c>
       <c r="J336" s="1">
@@ -12723,19 +12728,19 @@
       <c r="D337">
         <v>2007</v>
       </c>
-      <c r="E337" t="s">
+      <c r="E337" s="1" t="s">
         <v>283</v>
       </c>
       <c r="F337" t="s">
         <v>369</v>
       </c>
-      <c r="G337">
+      <c r="G337" s="1">
         <v>31413</v>
       </c>
       <c r="H337" t="s">
         <v>436</v>
       </c>
-      <c r="I337">
+      <c r="I337" s="1">
         <v>45233</v>
       </c>
       <c r="J337" s="1">
@@ -12755,19 +12760,19 @@
       <c r="D338">
         <v>2006</v>
       </c>
-      <c r="E338" t="s">
+      <c r="E338" s="1" t="s">
         <v>284</v>
       </c>
       <c r="F338" t="s">
         <v>362</v>
       </c>
-      <c r="G338">
+      <c r="G338" s="1">
         <v>22737</v>
       </c>
       <c r="H338" t="s">
         <v>363</v>
       </c>
-      <c r="I338">
+      <c r="I338" s="1">
         <v>22737</v>
       </c>
       <c r="J338" s="1">
@@ -12787,19 +12792,19 @@
       <c r="D339">
         <v>2006</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="1" t="s">
         <v>285</v>
       </c>
       <c r="F339" t="s">
         <v>364</v>
       </c>
-      <c r="G339">
+      <c r="G339" s="1">
         <v>20576</v>
       </c>
       <c r="H339" t="s">
         <v>431</v>
       </c>
-      <c r="I339">
+      <c r="I339" s="1">
         <v>18902</v>
       </c>
       <c r="J339" s="1">
@@ -12819,19 +12824,19 @@
       <c r="D340">
         <v>2006</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F340" t="s">
         <v>365</v>
       </c>
-      <c r="G340">
+      <c r="G340" s="1">
         <v>45147</v>
       </c>
       <c r="H340" t="s">
         <v>432</v>
       </c>
-      <c r="I340">
+      <c r="I340" s="1">
         <v>24563</v>
       </c>
       <c r="J340" s="1">
@@ -12851,22 +12856,22 @@
       <c r="D341">
         <v>2006</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="1" t="s">
         <v>287</v>
       </c>
       <c r="F341" t="s">
         <v>366</v>
       </c>
-      <c r="G341">
+      <c r="G341" s="1">
         <v>30437</v>
       </c>
       <c r="H341" t="s">
         <v>433</v>
       </c>
-      <c r="I341">
+      <c r="I341" s="1">
         <v>20880</v>
       </c>
-      <c r="J341" t="s">
+      <c r="J341" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -12883,13 +12888,13 @@
       <c r="F342" t="s">
         <v>367</v>
       </c>
-      <c r="G342">
+      <c r="G342" s="1">
         <v>44621</v>
       </c>
       <c r="H342" t="s">
         <v>434</v>
       </c>
-      <c r="I342">
+      <c r="I342" s="1">
         <v>45233</v>
       </c>
       <c r="J342" s="1">
@@ -12909,22 +12914,22 @@
       <c r="D343">
         <v>2006</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="1" t="s">
         <v>288</v>
       </c>
       <c r="F343" t="s">
         <v>368</v>
       </c>
-      <c r="G343">
+      <c r="G343" s="1">
         <v>16834</v>
       </c>
       <c r="H343" t="s">
         <v>435</v>
       </c>
-      <c r="I343">
+      <c r="I343" s="1">
         <v>35827</v>
       </c>
-      <c r="J343" t="s">
+      <c r="J343" s="1" t="s">
         <v>424</v>
       </c>
     </row>
@@ -12941,19 +12946,19 @@
       <c r="D344">
         <v>2006</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="1" t="s">
         <v>289</v>
       </c>
       <c r="F344" t="s">
         <v>369</v>
       </c>
-      <c r="G344">
+      <c r="G344" s="1">
         <v>24108</v>
       </c>
       <c r="H344" t="s">
         <v>436</v>
       </c>
-      <c r="I344">
+      <c r="I344" s="1">
         <v>45171</v>
       </c>
       <c r="J344" s="1">
@@ -12973,19 +12978,19 @@
       <c r="D345">
         <v>2006</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="1" t="s">
         <v>290</v>
       </c>
       <c r="F345" t="s">
         <v>362</v>
       </c>
-      <c r="G345">
+      <c r="G345" s="1">
         <v>22737</v>
       </c>
       <c r="H345" t="s">
         <v>363</v>
       </c>
-      <c r="I345">
+      <c r="I345" s="1">
         <v>22737</v>
       </c>
       <c r="J345" s="1">
@@ -13005,22 +13010,22 @@
       <c r="D346">
         <v>2006</v>
       </c>
-      <c r="E346" t="s">
+      <c r="E346" s="1" t="s">
         <v>291</v>
       </c>
       <c r="F346" t="s">
         <v>364</v>
       </c>
-      <c r="G346">
+      <c r="G346" s="1">
         <v>45111</v>
       </c>
       <c r="H346" t="s">
         <v>431</v>
       </c>
-      <c r="I346">
+      <c r="I346" s="1">
         <v>45597</v>
       </c>
-      <c r="J346" t="s">
+      <c r="J346" s="1" t="s">
         <v>425</v>
       </c>
     </row>
@@ -13037,19 +13042,19 @@
       <c r="D347">
         <v>2006</v>
       </c>
-      <c r="E347" t="s">
+      <c r="E347" s="1" t="s">
         <v>292</v>
       </c>
       <c r="F347" t="s">
         <v>365</v>
       </c>
-      <c r="G347">
+      <c r="G347" s="1">
         <v>34912</v>
       </c>
       <c r="H347" t="s">
         <v>432</v>
       </c>
-      <c r="I347">
+      <c r="I347" s="1">
         <v>19085</v>
       </c>
       <c r="J347" s="1">
@@ -13069,19 +13074,19 @@
       <c r="D348">
         <v>2006</v>
       </c>
-      <c r="E348" t="s">
+      <c r="E348" s="1" t="s">
         <v>293</v>
       </c>
       <c r="F348" t="s">
         <v>366</v>
       </c>
-      <c r="G348">
+      <c r="G348" s="1">
         <v>30072</v>
       </c>
       <c r="H348" t="s">
         <v>433</v>
       </c>
-      <c r="I348">
+      <c r="I348" s="1">
         <v>11383</v>
       </c>
       <c r="J348" s="1">
@@ -13101,13 +13106,13 @@
       <c r="F349" t="s">
         <v>367</v>
       </c>
-      <c r="G349">
+      <c r="G349" s="1">
         <v>45352</v>
       </c>
       <c r="H349" t="s">
         <v>434</v>
       </c>
-      <c r="I349">
+      <c r="I349" s="1">
         <v>45141</v>
       </c>
       <c r="J349" s="1">
@@ -13127,19 +13132,19 @@
       <c r="D350">
         <v>2006</v>
       </c>
-      <c r="E350" t="s">
+      <c r="E350" s="1" t="s">
         <v>294</v>
       </c>
       <c r="F350" t="s">
         <v>368</v>
       </c>
-      <c r="G350">
+      <c r="G350" s="1">
         <v>13181</v>
       </c>
       <c r="H350" t="s">
         <v>435</v>
       </c>
-      <c r="I350">
+      <c r="I350" s="1">
         <v>44960</v>
       </c>
       <c r="J350" s="1">
@@ -13159,19 +13164,19 @@
       <c r="D351">
         <v>2006</v>
       </c>
-      <c r="E351" t="s">
+      <c r="E351" s="1" t="s">
         <v>295</v>
       </c>
       <c r="F351" t="s">
         <v>369</v>
       </c>
-      <c r="G351">
+      <c r="G351" s="1">
         <v>22282</v>
       </c>
       <c r="H351" t="s">
         <v>436</v>
       </c>
-      <c r="I351">
+      <c r="I351" s="1">
         <v>30348</v>
       </c>
       <c r="J351" s="1">
@@ -13191,19 +13196,19 @@
       <c r="D352">
         <v>2006</v>
       </c>
-      <c r="E352" t="s">
+      <c r="E352" s="1" t="s">
         <v>296</v>
       </c>
       <c r="F352" t="s">
         <v>362</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="1">
         <v>23102</v>
       </c>
       <c r="H352" t="s">
         <v>363</v>
       </c>
-      <c r="I352">
+      <c r="I352" s="1">
         <v>23102</v>
       </c>
       <c r="J352" s="1">
@@ -13223,19 +13228,19 @@
       <c r="D353">
         <v>2006</v>
       </c>
-      <c r="E353" t="s">
+      <c r="E353" s="1" t="s">
         <v>297</v>
       </c>
       <c r="F353" t="s">
         <v>364</v>
       </c>
-      <c r="G353">
+      <c r="G353" s="1">
         <v>45084</v>
       </c>
       <c r="H353" t="s">
         <v>431</v>
       </c>
-      <c r="I353">
+      <c r="I353" s="1">
         <v>25447</v>
       </c>
       <c r="J353" s="1">
@@ -13255,19 +13260,19 @@
       <c r="D354">
         <v>2006</v>
       </c>
-      <c r="E354" t="s">
+      <c r="E354" s="1" t="s">
         <v>298</v>
       </c>
       <c r="F354" t="s">
         <v>365</v>
       </c>
-      <c r="G354">
+      <c r="G354" s="1">
         <v>13455</v>
       </c>
       <c r="H354" t="s">
         <v>432</v>
       </c>
-      <c r="I354">
+      <c r="I354" s="1">
         <v>31503</v>
       </c>
       <c r="J354" s="1">
@@ -13287,19 +13292,19 @@
       <c r="D355">
         <v>2006</v>
       </c>
-      <c r="E355" t="s">
+      <c r="E355" s="1" t="s">
         <v>299</v>
       </c>
       <c r="F355" t="s">
         <v>366</v>
       </c>
-      <c r="G355">
+      <c r="G355" s="1">
         <v>30803</v>
       </c>
       <c r="H355" t="s">
         <v>433</v>
       </c>
-      <c r="I355">
+      <c r="I355" s="1">
         <v>31837</v>
       </c>
       <c r="J355" s="1">
@@ -13319,13 +13324,13 @@
       <c r="F356" t="s">
         <v>367</v>
       </c>
-      <c r="G356">
+      <c r="G356" s="1">
         <v>44256</v>
       </c>
       <c r="H356" t="s">
         <v>434</v>
       </c>
-      <c r="I356">
+      <c r="I356" s="1">
         <v>42064</v>
       </c>
       <c r="J356" s="1">
@@ -13345,19 +13350,19 @@
       <c r="D357">
         <v>2006</v>
       </c>
-      <c r="E357" t="s">
+      <c r="E357" s="1" t="s">
         <v>300</v>
       </c>
       <c r="F357" t="s">
         <v>368</v>
       </c>
-      <c r="G357">
+      <c r="G357" s="1">
         <v>20852</v>
       </c>
       <c r="H357" t="s">
         <v>435</v>
       </c>
-      <c r="I357">
+      <c r="I357" s="1">
         <v>34001</v>
       </c>
       <c r="J357" s="1">
@@ -13377,19 +13382,19 @@
       <c r="D358">
         <v>2006</v>
       </c>
-      <c r="E358" t="s">
+      <c r="E358" s="1" t="s">
         <v>301</v>
       </c>
       <c r="F358" t="s">
         <v>369</v>
       </c>
-      <c r="G358">
+      <c r="G358" s="1">
         <v>26299</v>
       </c>
       <c r="H358" t="s">
         <v>436</v>
       </c>
-      <c r="I358">
+      <c r="I358" s="1">
         <v>36192</v>
       </c>
       <c r="J358" s="1">
@@ -13409,19 +13414,19 @@
       <c r="D359">
         <v>2005</v>
       </c>
-      <c r="E359" t="s">
+      <c r="E359" s="1" t="s">
         <v>302</v>
       </c>
       <c r="F359" t="s">
         <v>362</v>
       </c>
-      <c r="G359">
+      <c r="G359" s="1">
         <v>45143</v>
       </c>
       <c r="H359" t="s">
         <v>363</v>
       </c>
-      <c r="I359">
+      <c r="I359" s="1">
         <v>45143</v>
       </c>
       <c r="J359" s="1">
@@ -13441,19 +13446,19 @@
       <c r="D360">
         <v>2005</v>
       </c>
-      <c r="E360" t="s">
+      <c r="E360" s="1" t="s">
         <v>303</v>
       </c>
       <c r="F360" t="s">
         <v>364</v>
       </c>
-      <c r="G360">
+      <c r="G360" s="1">
         <v>45144</v>
       </c>
       <c r="H360" t="s">
         <v>431</v>
       </c>
-      <c r="I360">
+      <c r="I360" s="1">
         <v>11628</v>
       </c>
       <c r="J360" s="1">
@@ -13473,19 +13478,19 @@
       <c r="D361">
         <v>2005</v>
       </c>
-      <c r="E361" t="s">
+      <c r="E361" s="1" t="s">
         <v>304</v>
       </c>
       <c r="F361" t="s">
         <v>365</v>
       </c>
-      <c r="G361">
+      <c r="G361" s="1">
         <v>45056</v>
       </c>
       <c r="H361" t="s">
         <v>432</v>
       </c>
-      <c r="I361">
+      <c r="I361" s="1">
         <v>41395</v>
       </c>
       <c r="J361" s="1">
@@ -13505,19 +13510,19 @@
       <c r="D362">
         <v>2005</v>
       </c>
-      <c r="E362" t="s">
+      <c r="E362" s="1" t="s">
         <v>305</v>
       </c>
       <c r="F362" t="s">
         <v>366</v>
       </c>
-      <c r="G362">
+      <c r="G362" s="1">
         <v>12936</v>
       </c>
       <c r="H362" t="s">
         <v>433</v>
       </c>
-      <c r="I362">
+      <c r="I362" s="1">
         <v>32568</v>
       </c>
       <c r="J362" s="1">
@@ -13537,13 +13542,13 @@
       <c r="F363" t="s">
         <v>367</v>
       </c>
-      <c r="G363">
+      <c r="G363" s="1">
         <v>19784</v>
       </c>
       <c r="H363" t="s">
         <v>434</v>
       </c>
-      <c r="I363">
+      <c r="I363" s="1">
         <v>17227</v>
       </c>
       <c r="J363" s="1">
@@ -13563,19 +13568,19 @@
       <c r="D364">
         <v>2005</v>
       </c>
-      <c r="E364" t="s">
+      <c r="E364" s="1" t="s">
         <v>306</v>
       </c>
       <c r="F364" t="s">
         <v>368</v>
       </c>
-      <c r="G364">
+      <c r="G364" s="1">
         <v>27061</v>
       </c>
       <c r="H364" t="s">
         <v>435</v>
       </c>
-      <c r="I364">
+      <c r="I364" s="1">
         <v>11749</v>
       </c>
       <c r="J364" s="1">
@@ -13595,19 +13600,19 @@
       <c r="D365">
         <v>2005</v>
       </c>
-      <c r="E365" t="s">
+      <c r="E365" s="1" t="s">
         <v>307</v>
       </c>
       <c r="F365" t="s">
         <v>369</v>
       </c>
-      <c r="G365">
+      <c r="G365" s="1">
         <v>33239</v>
       </c>
       <c r="H365" t="s">
         <v>436</v>
       </c>
-      <c r="I365">
+      <c r="I365" s="1">
         <v>17593</v>
       </c>
       <c r="J365" s="1">
@@ -13627,19 +13632,19 @@
       <c r="D366">
         <v>2005</v>
       </c>
-      <c r="E366" t="s">
+      <c r="E366" s="1" t="s">
         <v>308</v>
       </c>
       <c r="F366" t="s">
         <v>362</v>
       </c>
-      <c r="G366">
+      <c r="G366" s="1">
         <v>45112</v>
       </c>
       <c r="H366" t="s">
         <v>363</v>
       </c>
-      <c r="I366">
+      <c r="I366" s="1">
         <v>45112</v>
       </c>
       <c r="J366" s="1">
@@ -13659,19 +13664,19 @@
       <c r="D367">
         <v>2005</v>
       </c>
-      <c r="E367" t="s">
+      <c r="E367" s="1" t="s">
         <v>309</v>
       </c>
       <c r="F367" t="s">
         <v>364</v>
       </c>
-      <c r="G367">
+      <c r="G367" s="1">
         <v>36251</v>
       </c>
       <c r="H367" t="s">
         <v>431</v>
       </c>
-      <c r="I367">
+      <c r="I367" s="1">
         <v>14580</v>
       </c>
       <c r="J367" s="1">
@@ -13691,19 +13696,19 @@
       <c r="D368">
         <v>2005</v>
       </c>
-      <c r="E368" t="s">
+      <c r="E368" s="1" t="s">
         <v>310</v>
       </c>
       <c r="F368" t="s">
         <v>365</v>
       </c>
-      <c r="G368">
+      <c r="G368" s="1">
         <v>44994</v>
       </c>
       <c r="H368" t="s">
         <v>432</v>
       </c>
-      <c r="I368">
+      <c r="I368" s="1">
         <v>26755</v>
       </c>
       <c r="J368" s="1">
@@ -13723,19 +13728,19 @@
       <c r="D369">
         <v>2005</v>
       </c>
-      <c r="E369" t="s">
+      <c r="E369" s="1" t="s">
         <v>311</v>
       </c>
       <c r="F369" t="s">
         <v>366</v>
       </c>
-      <c r="G369">
+      <c r="G369" s="1">
         <v>14032</v>
       </c>
       <c r="H369" t="s">
         <v>433</v>
       </c>
-      <c r="I369">
+      <c r="I369" s="1">
         <v>24532</v>
       </c>
       <c r="J369" s="1">
@@ -13755,13 +13760,13 @@
       <c r="F370" t="s">
         <v>367</v>
       </c>
-      <c r="G370">
+      <c r="G370" s="1">
         <v>18688</v>
       </c>
       <c r="H370" t="s">
         <v>434</v>
       </c>
-      <c r="I370">
+      <c r="I370" s="1">
         <v>16862</v>
       </c>
       <c r="J370" s="1">
@@ -13781,19 +13786,19 @@
       <c r="D371">
         <v>2005</v>
       </c>
-      <c r="E371" t="s">
+      <c r="E371" s="1" t="s">
         <v>312</v>
       </c>
       <c r="F371" t="s">
         <v>368</v>
       </c>
-      <c r="G371">
+      <c r="G371" s="1">
         <v>27791</v>
       </c>
       <c r="H371" t="s">
         <v>435</v>
       </c>
-      <c r="I371">
+      <c r="I371" s="1">
         <v>44988</v>
       </c>
       <c r="J371" s="1">
@@ -13813,19 +13818,19 @@
       <c r="D372">
         <v>2005</v>
       </c>
-      <c r="E372" t="s">
+      <c r="E372" s="1" t="s">
         <v>313</v>
       </c>
       <c r="F372" t="s">
         <v>369</v>
       </c>
-      <c r="G372">
+      <c r="G372" s="1">
         <v>27030</v>
       </c>
       <c r="H372" t="s">
         <v>436</v>
       </c>
-      <c r="I372">
+      <c r="I372" s="1">
         <v>16497</v>
       </c>
       <c r="J372" s="1">
@@ -13845,22 +13850,22 @@
       <c r="D373">
         <v>2005</v>
       </c>
-      <c r="E373" t="s">
+      <c r="E373" s="1" t="s">
         <v>314</v>
       </c>
       <c r="F373" t="s">
         <v>362</v>
       </c>
-      <c r="G373">
+      <c r="G373" s="1">
         <v>44931</v>
       </c>
       <c r="H373" t="s">
         <v>363</v>
       </c>
-      <c r="I373">
+      <c r="I373" s="1">
         <v>44931</v>
       </c>
-      <c r="J373" t="s">
+      <c r="J373" s="1" t="s">
         <v>426</v>
       </c>
     </row>
@@ -13877,19 +13882,19 @@
       <c r="D374">
         <v>2005</v>
       </c>
-      <c r="E374" t="s">
+      <c r="E374" s="1" t="s">
         <v>315</v>
       </c>
       <c r="F374" t="s">
         <v>364</v>
       </c>
-      <c r="G374">
+      <c r="G374" s="1">
         <v>24685</v>
       </c>
       <c r="H374" t="s">
         <v>431</v>
       </c>
-      <c r="I374">
+      <c r="I374" s="1">
         <v>41548</v>
       </c>
       <c r="J374" s="1">
@@ -13909,19 +13914,19 @@
       <c r="D375">
         <v>2005</v>
       </c>
-      <c r="E375" t="s">
+      <c r="E375" s="1" t="s">
         <v>316</v>
       </c>
       <c r="F375" t="s">
         <v>365</v>
       </c>
-      <c r="G375" t="s">
+      <c r="G375" s="1" t="s">
         <v>385</v>
       </c>
       <c r="H375" t="s">
         <v>432</v>
       </c>
-      <c r="I375">
+      <c r="I375" s="1">
         <v>23132</v>
       </c>
       <c r="J375" s="1">
@@ -13941,19 +13946,19 @@
       <c r="D376">
         <v>2005</v>
       </c>
-      <c r="E376" t="s">
+      <c r="E376" s="1" t="s">
         <v>317</v>
       </c>
       <c r="F376" t="s">
         <v>366</v>
       </c>
-      <c r="G376">
+      <c r="G376" s="1">
         <v>11841</v>
       </c>
       <c r="H376" t="s">
         <v>433</v>
       </c>
-      <c r="I376">
+      <c r="I376" s="1">
         <v>41730</v>
       </c>
       <c r="J376" s="1">
@@ -13973,13 +13978,13 @@
       <c r="F377" t="s">
         <v>367</v>
       </c>
-      <c r="G377">
+      <c r="G377" s="1">
         <v>20880</v>
       </c>
       <c r="H377" t="s">
         <v>434</v>
       </c>
-      <c r="I377">
+      <c r="I377" s="1">
         <v>17958</v>
       </c>
       <c r="J377" s="1">
@@ -13999,19 +14004,19 @@
       <c r="D378">
         <v>2005</v>
       </c>
-      <c r="E378" t="s">
+      <c r="E378" s="1" t="s">
         <v>318</v>
       </c>
       <c r="F378" t="s">
         <v>368</v>
       </c>
-      <c r="G378">
+      <c r="G378" s="1">
         <v>25965</v>
       </c>
       <c r="H378" t="s">
         <v>435</v>
       </c>
-      <c r="I378">
+      <c r="I378" s="1">
         <v>12844</v>
       </c>
       <c r="J378" s="1">
@@ -14031,19 +14036,19 @@
       <c r="D379">
         <v>2005</v>
       </c>
-      <c r="E379" t="s">
+      <c r="E379" s="1" t="s">
         <v>319</v>
       </c>
       <c r="F379" t="s">
         <v>369</v>
       </c>
-      <c r="G379">
+      <c r="G379" s="1">
         <v>44928</v>
       </c>
       <c r="H379" t="s">
         <v>436</v>
       </c>
-      <c r="I379">
+      <c r="I379" s="1">
         <v>19054</v>
       </c>
       <c r="J379" s="1">
@@ -14063,19 +14068,19 @@
       <c r="D380">
         <v>2004</v>
       </c>
-      <c r="E380" t="s">
+      <c r="E380" s="1" t="s">
         <v>320</v>
       </c>
       <c r="F380" t="s">
         <v>362</v>
       </c>
-      <c r="G380">
+      <c r="G380" s="1">
         <v>19480</v>
       </c>
       <c r="H380" t="s">
         <v>363</v>
       </c>
-      <c r="I380">
+      <c r="I380" s="1">
         <v>19480</v>
       </c>
       <c r="J380" s="1">
@@ -14095,19 +14100,19 @@
       <c r="D381">
         <v>2004</v>
       </c>
-      <c r="E381" t="s">
+      <c r="E381" s="1" t="s">
         <v>321</v>
       </c>
       <c r="F381" t="s">
         <v>364</v>
       </c>
-      <c r="G381">
+      <c r="G381" s="1">
         <v>15523</v>
       </c>
       <c r="H381" t="s">
         <v>431</v>
       </c>
-      <c r="I381">
+      <c r="I381" s="1">
         <v>31352</v>
       </c>
       <c r="J381" s="1">
@@ -14127,19 +14132,19 @@
       <c r="D382">
         <v>2004</v>
       </c>
-      <c r="E382" t="s">
+      <c r="E382" s="1" t="s">
         <v>322</v>
       </c>
       <c r="F382" t="s">
         <v>365</v>
       </c>
-      <c r="G382">
+      <c r="G382" s="1">
         <v>16011</v>
       </c>
       <c r="H382" t="s">
         <v>432</v>
       </c>
-      <c r="I382">
+      <c r="I382" s="1">
         <v>19845</v>
       </c>
       <c r="J382" s="1">
@@ -14159,19 +14164,19 @@
       <c r="D383">
         <v>2004</v>
       </c>
-      <c r="E383" t="s">
+      <c r="E383" s="1" t="s">
         <v>323</v>
       </c>
       <c r="F383" t="s">
         <v>366</v>
       </c>
-      <c r="G383">
+      <c r="G383" s="1">
         <v>27181</v>
       </c>
       <c r="H383" t="s">
         <v>433</v>
       </c>
-      <c r="I383">
+      <c r="I383" s="1">
         <v>13241</v>
       </c>
       <c r="J383" s="1">
@@ -14191,13 +14196,13 @@
       <c r="F384" t="s">
         <v>367</v>
       </c>
-      <c r="G384">
+      <c r="G384" s="1">
         <v>31837</v>
       </c>
       <c r="H384" t="s">
         <v>434</v>
       </c>
-      <c r="I384">
+      <c r="I384" s="1">
         <v>30011</v>
       </c>
       <c r="J384" s="1">
@@ -14217,19 +14222,19 @@
       <c r="D385">
         <v>2004</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E385" s="1" t="s">
         <v>324</v>
       </c>
       <c r="F385" t="s">
         <v>368</v>
       </c>
-      <c r="G385">
+      <c r="G385" s="1">
         <v>41699</v>
       </c>
       <c r="H385" t="s">
         <v>435</v>
       </c>
-      <c r="I385">
+      <c r="I385" s="1">
         <v>28550</v>
       </c>
       <c r="J385" s="1">
@@ -14249,19 +14254,19 @@
       <c r="D386">
         <v>2004</v>
       </c>
-      <c r="E386" t="s">
+      <c r="E386" s="1" t="s">
         <v>325</v>
       </c>
       <c r="F386" t="s">
         <v>369</v>
       </c>
-      <c r="G386">
+      <c r="G386" s="1">
         <v>13181</v>
       </c>
       <c r="H386" t="s">
         <v>436</v>
       </c>
-      <c r="I386">
+      <c r="I386" s="1">
         <v>21245</v>
       </c>
       <c r="J386" s="1">
@@ -14281,19 +14286,19 @@
       <c r="D387">
         <v>2004</v>
       </c>
-      <c r="E387" t="s">
+      <c r="E387" s="1" t="s">
         <v>326</v>
       </c>
       <c r="F387" t="s">
         <v>362</v>
       </c>
-      <c r="G387">
+      <c r="G387" s="1">
         <v>23498</v>
       </c>
       <c r="H387" t="s">
         <v>363</v>
       </c>
-      <c r="I387">
+      <c r="I387" s="1">
         <v>23498</v>
       </c>
       <c r="J387" s="1">
@@ -14313,19 +14318,19 @@
       <c r="D388">
         <v>2004</v>
       </c>
-      <c r="E388" t="s">
+      <c r="E388" s="1" t="s">
         <v>327</v>
       </c>
       <c r="F388" t="s">
         <v>364</v>
       </c>
-      <c r="G388">
+      <c r="G388" s="1">
         <v>33359</v>
       </c>
       <c r="H388" t="s">
         <v>431</v>
       </c>
-      <c r="I388">
+      <c r="I388" s="1">
         <v>23712</v>
       </c>
       <c r="J388" s="1">
@@ -14345,19 +14350,19 @@
       <c r="D389">
         <v>2004</v>
       </c>
-      <c r="E389" t="s">
+      <c r="E389" s="1" t="s">
         <v>328</v>
       </c>
       <c r="F389" t="s">
         <v>365</v>
       </c>
-      <c r="G389">
+      <c r="G389" s="1">
         <v>43374</v>
       </c>
       <c r="H389" t="s">
         <v>432</v>
       </c>
-      <c r="I389">
+      <c r="I389" s="1">
         <v>18749</v>
       </c>
       <c r="J389" s="1">
@@ -14377,19 +14382,19 @@
       <c r="D390">
         <v>2004</v>
       </c>
-      <c r="E390" t="s">
+      <c r="E390" s="1" t="s">
         <v>329</v>
       </c>
       <c r="F390" t="s">
         <v>366</v>
       </c>
-      <c r="G390">
+      <c r="G390" s="1">
         <v>33756</v>
       </c>
       <c r="H390" t="s">
         <v>433</v>
       </c>
-      <c r="I390">
+      <c r="I390" s="1">
         <v>44989</v>
       </c>
       <c r="J390" s="1">
@@ -14409,13 +14414,13 @@
       <c r="F391" t="s">
         <v>367</v>
       </c>
-      <c r="G391">
+      <c r="G391" s="1">
         <v>41730</v>
       </c>
       <c r="H391" t="s">
         <v>434</v>
       </c>
-      <c r="I391">
+      <c r="I391" s="1">
         <v>32203</v>
       </c>
       <c r="J391" s="1">
@@ -14435,19 +14440,19 @@
       <c r="D392">
         <v>2004</v>
       </c>
-      <c r="E392" t="s">
+      <c r="E392" s="1" t="s">
         <v>330</v>
       </c>
       <c r="F392" t="s">
         <v>368</v>
       </c>
-      <c r="G392">
+      <c r="G392" s="1">
         <v>44960</v>
       </c>
       <c r="H392" t="s">
         <v>435</v>
       </c>
-      <c r="I392">
+      <c r="I392" s="1">
         <v>33298</v>
       </c>
       <c r="J392" s="1">
@@ -14467,19 +14472,19 @@
       <c r="D393">
         <v>2004</v>
       </c>
-      <c r="E393" t="s">
+      <c r="E393" s="1" t="s">
         <v>331</v>
       </c>
       <c r="F393" t="s">
         <v>369</v>
       </c>
-      <c r="G393">
+      <c r="G393" s="1">
         <v>11355</v>
       </c>
       <c r="H393" t="s">
         <v>436</v>
       </c>
-      <c r="I393">
+      <c r="I393" s="1">
         <v>26359</v>
       </c>
       <c r="J393" s="1">
@@ -14499,19 +14504,19 @@
       <c r="D394">
         <v>2004</v>
       </c>
-      <c r="E394" t="s">
+      <c r="E394" s="1" t="s">
         <v>332</v>
       </c>
       <c r="F394" t="s">
         <v>362</v>
       </c>
-      <c r="G394">
+      <c r="G394" s="1">
         <v>45021</v>
       </c>
       <c r="H394" t="s">
         <v>363</v>
       </c>
-      <c r="I394">
+      <c r="I394" s="1">
         <v>45021</v>
       </c>
       <c r="J394" s="1">
@@ -14531,19 +14536,19 @@
       <c r="D395">
         <v>2004</v>
       </c>
-      <c r="E395" t="s">
+      <c r="E395" s="1" t="s">
         <v>333</v>
       </c>
       <c r="F395" t="s">
         <v>364</v>
       </c>
-      <c r="G395">
+      <c r="G395" s="1">
         <v>34608</v>
       </c>
       <c r="H395" t="s">
         <v>431</v>
       </c>
-      <c r="I395">
+      <c r="I395" s="1">
         <v>35704</v>
       </c>
       <c r="J395" s="1">
@@ -14563,22 +14568,22 @@
       <c r="D396">
         <v>2004</v>
       </c>
-      <c r="E396" t="s">
+      <c r="E396" s="1" t="s">
         <v>334</v>
       </c>
       <c r="F396" t="s">
         <v>365</v>
       </c>
-      <c r="G396" t="s">
+      <c r="G396" s="1" t="s">
         <v>386</v>
       </c>
       <c r="H396" t="s">
         <v>432</v>
       </c>
-      <c r="I396">
+      <c r="I396" s="1">
         <v>21306</v>
       </c>
-      <c r="J396" t="s">
+      <c r="J396" s="1" t="s">
         <v>427</v>
       </c>
     </row>
@@ -14595,22 +14600,22 @@
       <c r="D397">
         <v>2004</v>
       </c>
-      <c r="E397" t="s">
+      <c r="E397" s="1" t="s">
         <v>335</v>
       </c>
       <c r="F397" t="s">
         <v>366</v>
       </c>
-      <c r="G397">
+      <c r="G397" s="1">
         <v>19511</v>
       </c>
       <c r="H397" t="s">
         <v>433</v>
       </c>
-      <c r="I397">
+      <c r="I397" s="1">
         <v>16528</v>
       </c>
-      <c r="J397" t="s">
+      <c r="J397" s="1" t="s">
         <v>428</v>
       </c>
     </row>
@@ -14627,13 +14632,13 @@
       <c r="F398" t="s">
         <v>367</v>
       </c>
-      <c r="G398">
+      <c r="G398" s="1">
         <v>23437</v>
       </c>
       <c r="H398" t="s">
         <v>434</v>
       </c>
-      <c r="I398">
+      <c r="I398" s="1">
         <v>27454</v>
       </c>
       <c r="J398" s="1">
@@ -14653,19 +14658,19 @@
       <c r="D399">
         <v>2004</v>
       </c>
-      <c r="E399" t="s">
+      <c r="E399" s="1" t="s">
         <v>336</v>
       </c>
       <c r="F399" t="s">
         <v>368</v>
       </c>
-      <c r="G399">
+      <c r="G399" s="1">
         <v>45172</v>
       </c>
       <c r="H399" t="s">
         <v>435</v>
       </c>
-      <c r="I399">
+      <c r="I399" s="1">
         <v>23802</v>
       </c>
       <c r="J399" s="1">
@@ -14685,19 +14690,19 @@
       <c r="D400">
         <v>2004</v>
       </c>
-      <c r="E400" t="s">
+      <c r="E400" s="1" t="s">
         <v>337</v>
       </c>
       <c r="F400" t="s">
         <v>369</v>
       </c>
-      <c r="G400">
+      <c r="G400" s="1">
         <v>15373</v>
       </c>
       <c r="H400" t="s">
         <v>436</v>
       </c>
-      <c r="I400">
+      <c r="I400" s="1">
         <v>45019</v>
       </c>
       <c r="J400" s="1">
@@ -14717,19 +14722,19 @@
       <c r="D401">
         <v>2003</v>
       </c>
-      <c r="E401" t="s">
+      <c r="E401" s="1" t="s">
         <v>338</v>
       </c>
       <c r="F401" t="s">
         <v>362</v>
       </c>
-      <c r="G401">
+      <c r="G401" s="1">
         <v>36281</v>
       </c>
       <c r="H401" t="s">
         <v>363</v>
       </c>
-      <c r="I401">
+      <c r="I401" s="1">
         <v>36281</v>
       </c>
       <c r="J401" s="1">
@@ -14749,19 +14754,19 @@
       <c r="D402">
         <v>2003</v>
       </c>
-      <c r="E402" t="s">
+      <c r="E402" s="1" t="s">
         <v>339</v>
       </c>
       <c r="F402" t="s">
         <v>364</v>
       </c>
-      <c r="G402">
+      <c r="G402" s="1">
         <v>45085</v>
       </c>
       <c r="H402" t="s">
         <v>431</v>
       </c>
-      <c r="I402">
+      <c r="I402" s="1">
         <v>16041</v>
       </c>
       <c r="J402" s="1">
@@ -14781,19 +14786,19 @@
       <c r="D403">
         <v>2003</v>
       </c>
-      <c r="E403" t="s">
+      <c r="E403" s="1" t="s">
         <v>340</v>
       </c>
       <c r="F403" t="s">
         <v>365</v>
       </c>
-      <c r="G403">
+      <c r="G403" s="1">
         <v>15281</v>
       </c>
       <c r="H403" t="s">
         <v>432</v>
       </c>
-      <c r="I403">
+      <c r="I403" s="1">
         <v>45083</v>
       </c>
       <c r="J403" s="1">
@@ -14813,19 +14818,19 @@
       <c r="D404">
         <v>2003</v>
       </c>
-      <c r="E404" t="s">
+      <c r="E404" s="1" t="s">
         <v>341</v>
       </c>
       <c r="F404" t="s">
         <v>366</v>
       </c>
-      <c r="G404">
+      <c r="G404" s="1">
         <v>45108</v>
       </c>
       <c r="H404" t="s">
         <v>433</v>
       </c>
-      <c r="I404">
+      <c r="I404" s="1">
         <v>34790</v>
       </c>
       <c r="J404" s="1">
@@ -14845,13 +14850,13 @@
       <c r="F405" t="s">
         <v>367</v>
       </c>
-      <c r="G405">
+      <c r="G405" s="1">
         <v>45748</v>
       </c>
       <c r="H405" t="s">
         <v>434</v>
       </c>
-      <c r="I405">
+      <c r="I405" s="1">
         <v>45142</v>
       </c>
       <c r="J405" s="1">
@@ -14871,19 +14876,19 @@
       <c r="D406">
         <v>2003</v>
       </c>
-      <c r="E406" t="s">
+      <c r="E406" s="1" t="s">
         <v>342</v>
       </c>
       <c r="F406" t="s">
         <v>368</v>
       </c>
-      <c r="G406">
+      <c r="G406" s="1">
         <v>19419</v>
       </c>
       <c r="H406" t="s">
         <v>435</v>
       </c>
-      <c r="I406">
+      <c r="I406" s="1">
         <v>45264</v>
       </c>
       <c r="J406" s="1">
@@ -14903,19 +14908,19 @@
       <c r="D407">
         <v>2003</v>
       </c>
-      <c r="E407" t="s">
+      <c r="E407" s="1" t="s">
         <v>343</v>
       </c>
       <c r="F407" t="s">
         <v>369</v>
       </c>
-      <c r="G407">
+      <c r="G407" s="1">
         <v>23043</v>
       </c>
       <c r="H407" t="s">
         <v>436</v>
       </c>
-      <c r="I407">
+      <c r="I407" s="1">
         <v>30376</v>
       </c>
       <c r="J407" s="1">
@@ -14935,19 +14940,19 @@
       <c r="D408">
         <v>2003</v>
       </c>
-      <c r="E408" t="s">
+      <c r="E408" s="1" t="s">
         <v>344</v>
       </c>
       <c r="F408" t="s">
         <v>362</v>
       </c>
-      <c r="G408">
+      <c r="G408" s="1">
         <v>46539</v>
       </c>
       <c r="H408" t="s">
         <v>363</v>
       </c>
-      <c r="I408">
+      <c r="I408" s="1">
         <v>46539</v>
       </c>
       <c r="J408" s="1">
@@ -14967,19 +14972,19 @@
       <c r="D409">
         <v>2003</v>
       </c>
-      <c r="E409" t="s">
+      <c r="E409" s="1" t="s">
         <v>345</v>
       </c>
       <c r="F409" t="s">
         <v>364</v>
       </c>
-      <c r="G409">
+      <c r="G409" s="1">
         <v>45084</v>
       </c>
       <c r="H409" t="s">
         <v>431</v>
       </c>
-      <c r="I409" t="s">
+      <c r="I409" s="1" t="s">
         <v>404</v>
       </c>
       <c r="J409" s="1">
@@ -14999,19 +15004,19 @@
       <c r="D410">
         <v>2003</v>
       </c>
-      <c r="E410" t="s">
+      <c r="E410" s="1" t="s">
         <v>346</v>
       </c>
       <c r="F410" t="s">
         <v>365</v>
       </c>
-      <c r="G410">
+      <c r="G410" s="1">
         <v>15980</v>
       </c>
       <c r="H410" t="s">
         <v>432</v>
       </c>
-      <c r="I410">
+      <c r="I410" s="1">
         <v>42887</v>
       </c>
       <c r="J410" s="1">
@@ -15031,22 +15036,22 @@
       <c r="D411">
         <v>2003</v>
       </c>
-      <c r="E411" t="s">
+      <c r="E411" s="1" t="s">
         <v>347</v>
       </c>
       <c r="F411" t="s">
         <v>366</v>
       </c>
-      <c r="G411">
+      <c r="G411" s="1">
         <v>21367</v>
       </c>
       <c r="H411" t="s">
         <v>433</v>
       </c>
-      <c r="I411">
+      <c r="I411" s="1">
         <v>5</v>
       </c>
-      <c r="J411" t="s">
+      <c r="J411" s="1" t="s">
         <v>429</v>
       </c>
     </row>
@@ -15063,13 +15068,13 @@
       <c r="F412" t="s">
         <v>367</v>
       </c>
-      <c r="G412">
+      <c r="G412" s="1">
         <v>24929</v>
       </c>
       <c r="H412" t="s">
         <v>434</v>
       </c>
-      <c r="I412">
+      <c r="I412" s="1">
         <v>45020</v>
       </c>
       <c r="J412" s="1">
@@ -15089,19 +15094,19 @@
       <c r="D413">
         <v>2003</v>
       </c>
-      <c r="E413" t="s">
+      <c r="E413" s="1" t="s">
         <v>348</v>
       </c>
       <c r="F413" t="s">
         <v>368</v>
       </c>
-      <c r="G413">
+      <c r="G413" s="1">
         <v>26724</v>
       </c>
       <c r="H413" t="s">
         <v>435</v>
       </c>
-      <c r="I413">
+      <c r="I413" s="1">
         <v>45050</v>
       </c>
       <c r="J413" s="1">
@@ -15121,19 +15126,19 @@
       <c r="D414">
         <v>2003</v>
       </c>
-      <c r="E414" t="s">
+      <c r="E414" s="1" t="s">
         <v>349</v>
       </c>
       <c r="F414" t="s">
         <v>369</v>
       </c>
-      <c r="G414">
+      <c r="G414" s="1">
         <v>29618</v>
       </c>
       <c r="H414" t="s">
         <v>436</v>
       </c>
-      <c r="I414">
+      <c r="I414" s="1">
         <v>36220</v>
       </c>
       <c r="J414" s="1">
@@ -15153,22 +15158,22 @@
       <c r="D415">
         <v>2003</v>
       </c>
-      <c r="E415" t="s">
+      <c r="E415" s="1" t="s">
         <v>350</v>
       </c>
       <c r="F415" t="s">
         <v>362</v>
       </c>
-      <c r="G415">
+      <c r="G415" s="1">
         <v>24593</v>
       </c>
       <c r="H415" t="s">
         <v>363</v>
       </c>
-      <c r="I415">
+      <c r="I415" s="1">
         <v>24593</v>
       </c>
-      <c r="J415" t="s">
+      <c r="J415" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15185,19 +15190,19 @@
       <c r="D416">
         <v>2003</v>
       </c>
-      <c r="E416" t="s">
+      <c r="E416" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F416" t="s">
         <v>364</v>
       </c>
-      <c r="G416">
+      <c r="G416" s="1">
         <v>28034</v>
       </c>
       <c r="H416" t="s">
         <v>431</v>
       </c>
-      <c r="I416">
+      <c r="I416" s="1">
         <v>15646</v>
       </c>
       <c r="J416" s="1">
@@ -15217,19 +15222,19 @@
       <c r="D417">
         <v>2003</v>
       </c>
-      <c r="E417" t="s">
+      <c r="E417" s="1" t="s">
         <v>352</v>
       </c>
       <c r="F417" t="s">
         <v>365</v>
       </c>
-      <c r="G417">
+      <c r="G417" s="1">
         <v>45243</v>
       </c>
       <c r="H417" t="s">
         <v>432</v>
       </c>
-      <c r="I417">
+      <c r="I417" s="1">
         <v>33725</v>
       </c>
       <c r="J417" s="1">
@@ -15249,19 +15254,19 @@
       <c r="D418">
         <v>2003</v>
       </c>
-      <c r="E418" t="s">
+      <c r="E418" s="1" t="s">
         <v>353</v>
       </c>
       <c r="F418" t="s">
         <v>366</v>
       </c>
-      <c r="G418">
+      <c r="G418" s="1">
         <v>30834</v>
       </c>
       <c r="H418" t="s">
         <v>433</v>
       </c>
-      <c r="I418">
+      <c r="I418" s="1">
         <v>32599</v>
       </c>
       <c r="J418" s="1">
@@ -15281,13 +15286,13 @@
       <c r="F419" t="s">
         <v>367</v>
       </c>
-      <c r="G419">
+      <c r="G419" s="1">
         <v>32568</v>
       </c>
       <c r="H419" t="s">
         <v>434</v>
       </c>
-      <c r="I419">
+      <c r="I419" s="1">
         <v>26359</v>
       </c>
       <c r="J419" s="1">
@@ -15307,19 +15312,19 @@
       <c r="D420">
         <v>2003</v>
       </c>
-      <c r="E420" t="s">
+      <c r="E420" s="1" t="s">
         <v>354</v>
       </c>
       <c r="F420" t="s">
         <v>368</v>
       </c>
-      <c r="G420">
+      <c r="G420" s="1">
         <v>11383</v>
       </c>
       <c r="H420" t="s">
         <v>435</v>
       </c>
-      <c r="I420">
+      <c r="I420" s="1">
         <v>45110</v>
       </c>
       <c r="J420" s="1">
@@ -15339,19 +15344,19 @@
       <c r="D421">
         <v>2003</v>
       </c>
-      <c r="E421" t="s">
+      <c r="E421" s="1" t="s">
         <v>355</v>
       </c>
       <c r="F421" t="s">
         <v>369</v>
       </c>
-      <c r="G421">
+      <c r="G421" s="1">
         <v>15738</v>
       </c>
       <c r="H421" t="s">
         <v>436</v>
       </c>
-      <c r="I421">
+      <c r="I421" s="1">
         <v>22706</v>
       </c>
       <c r="J421" s="1">
@@ -15361,5 +15366,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>